--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BFE4A5C-D480-4D0C-A241-DF872A552378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6A7CCB-1430-4AA9-A57A-C9BBDE69116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5568" yWindow="1512" windowWidth="15684" windowHeight="11412" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -749,9 +749,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上次交易日</t>
-  </si>
-  <si>
     <t>更正時, 檢查是否為最近一筆交易</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1079,6 +1076,10 @@
   <si>
     <t>Y:是(不可撤銷)
 N:否(可撤銷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上次會計日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1867,10 +1868,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -1939,7 +1940,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>121</v>
@@ -1948,7 +1949,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1959,7 +1960,7 @@
         <v>160</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>121</v>
@@ -1968,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1979,7 +1980,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>123</v>
@@ -2158,10 +2159,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>236</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>237</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -2179,7 +2180,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>121</v>
@@ -2236,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>121</v>
@@ -2254,7 +2255,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>173</v>
@@ -2389,10 +2390,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>201</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -2401,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2421,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2435,13 +2436,13 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2542,10 +2543,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="C45" s="16" t="s">
         <v>247</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>248</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -2563,10 +2564,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
@@ -2575,7 +2576,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2684,7 +2685,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>123</v>
@@ -2713,7 +2714,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2733,7 +2734,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -2753,7 +2754,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -2801,7 +2802,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C58" s="21" t="s">
         <v>34</v>
@@ -2813,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2914,7 +2915,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>123</v>
@@ -2923,7 +2924,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
@@ -2931,10 +2932,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -3003,10 +3004,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>192</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>129</v>
@@ -3015,7 +3016,7 @@
         <v>6</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
@@ -3026,7 +3027,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>122</v>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F70" s="21"/>
       <c r="G70" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3044,10 +3045,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>220</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>221</v>
       </c>
       <c r="D71" s="27" t="s">
         <v>129</v>
@@ -3057,7 +3058,7 @@
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
@@ -3065,13 +3066,13 @@
         <v>63</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D72" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E72" s="27">
         <v>200</v>
@@ -3150,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3170,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
@@ -3181,7 +3182,7 @@
         <v>182</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>183</v>
+        <v>254</v>
       </c>
       <c r="D78" s="30" t="s">
         <v>152</v>
@@ -3190,7 +3191,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
@@ -3198,10 +3199,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>185</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>186</v>
       </c>
       <c r="D79" s="30" t="s">
         <v>123</v>
@@ -3216,10 +3217,10 @@
         <v>71</v>
       </c>
       <c r="B80" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D80" s="30" t="s">
         <v>123</v>
@@ -3234,10 +3235,10 @@
         <v>72</v>
       </c>
       <c r="B81" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>188</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>189</v>
       </c>
       <c r="D81" s="30" t="s">
         <v>129</v>
@@ -3282,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
@@ -3290,10 +3291,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>129</v>
@@ -3308,10 +3309,10 @@
         <v>76</v>
       </c>
       <c r="B85" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="C85" s="31" t="s">
         <v>239</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>240</v>
       </c>
       <c r="D85" s="32" t="s">
         <v>129</v>
@@ -3321,7 +3322,7 @@
       </c>
       <c r="F85" s="32"/>
       <c r="G85" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3455,7 +3456,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>164</v>
@@ -3482,7 +3483,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -3507,7 +3508,7 @@
         <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>175</v>
@@ -3515,10 +3516,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>177</v>
@@ -3526,10 +3527,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>175</v>
@@ -3537,10 +3538,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -3548,21 +3549,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>175</v>
@@ -3570,10 +3571,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>175</v>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6A7CCB-1430-4AA9-A57A-C9BBDE69116C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778F0FC-627F-407B-9055-DD6BE2EC94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1200" yWindow="1920" windowWidth="21840" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="258">
   <si>
     <t>備註說明</t>
   </si>
@@ -1081,6 +1081,18 @@
   <si>
     <t>上次會計日</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo asc ,FacmNo desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findLastFacmNoFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1712,7 +1724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
@@ -3425,11 +3437,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3580,6 +3592,17 @@
         <v>175</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3778F0FC-627F-407B-9055-DD6BE2EC94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321733FE-7D81-4E86-8A3A-7D902BA26435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1920" windowWidth="21840" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="271">
   <si>
     <t>備註說明</t>
   </si>
@@ -1093,6 +1093,80 @@
   <si>
     <t>findLastFacmNoFirst</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色授信註記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠色支出類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永續績效連結授信註記</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永續績效連結授信類別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永續績效連結授信約定條件全部未達成通報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否
+(2022.4.21異動)by 昱衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.GrKind
+A:再生能源
+B:節能
+C:污染防制
+D:生命自然資源環境永續管理及土地利用環境永續管理
+E:地域與水域生物多樣性保護
+F:潔淨交通運輸
+G:永續水源及廢水處理
+H:氣候變遷調適
+I:具生態效率與環境經濟調適之產品
+J:綠能建築
+Z:其他
+(2022.4.21異動)by 昱衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EsGcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EsGcnl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EsGKind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.EsGKind
+1:E環境
+2:S社會責任
+3:G公司治理 
+4:ES環境及社會責任 
+5:EG環境及公司治理 
+6:SG社會責任及公司治理 
+7:ESG環境、社會責任及公司治理
+(2022.4.21異動)by 昱衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1186,7 +1260,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,29 +1434,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1722,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1740,10 +1814,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1755,8 +1829,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1768,10 +1842,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="35"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1783,10 +1857,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1798,10 +1872,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1813,10 +1887,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1826,10 +1900,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="16" t="s">
         <v>160</v>
       </c>
@@ -1839,10 +1913,10 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -3320,103 +3394,208 @@
       <c r="A85" s="4">
         <v>76</v>
       </c>
-      <c r="B85" s="31" t="s">
+      <c r="B85" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="31" t="s">
+      <c r="C85" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D85" s="32" t="s">
+      <c r="D85" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="38">
         <v>1</v>
       </c>
-      <c r="F85" s="32"/>
-      <c r="G85" s="31" t="s">
+      <c r="F85" s="38"/>
+      <c r="G85" s="37" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>77</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E86" s="4">
-        <v>8</v>
-      </c>
-      <c r="G86" s="19"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B86" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E86" s="38">
+        <v>1</v>
+      </c>
+      <c r="F86" s="38"/>
+      <c r="G86" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>78</v>
       </c>
-      <c r="B87" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="4">
-        <v>6</v>
-      </c>
-      <c r="F87" s="4">
+      <c r="B87" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>259</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E87" s="38">
         <v>1</v>
       </c>
-      <c r="G87" s="19"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F87" s="38"/>
+      <c r="G87" s="37" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>79</v>
       </c>
-      <c r="B88" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="4">
-        <v>8</v>
-      </c>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B88" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E88" s="38">
+        <v>1</v>
+      </c>
+      <c r="F88" s="38"/>
+      <c r="G88" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>80</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E89" s="38">
+        <v>1</v>
+      </c>
+      <c r="F89" s="38"/>
+      <c r="G89" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>81</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="38">
+        <v>1</v>
+      </c>
+      <c r="F90" s="38"/>
+      <c r="G90" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>77</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E91" s="4">
+        <v>8</v>
+      </c>
+      <c r="G91" s="19"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>78</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E92" s="4">
+        <v>6</v>
+      </c>
+      <c r="F92" s="4">
+        <v>1</v>
+      </c>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>79</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E93" s="4">
+        <v>8</v>
+      </c>
+      <c r="G93" s="19"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>80</v>
+      </c>
+      <c r="B94" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C94" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="D94" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E94" s="4">
         <v>6</v>
       </c>
-      <c r="G89" s="19"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3439,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321733FE-7D81-4E86-8A3A-7D902BA26435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2074109-12E3-453B-B7DF-7200CDE5283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="8440" yWindow="6180" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1434,6 +1435,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1451,12 +1458,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1798,26 +1799,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="31" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="28" customWidth="1"/>
-    <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" style="28" customWidth="1"/>
+    <col min="5" max="6" width="4.6328125" style="4" customWidth="1"/>
     <col min="7" max="7" width="49" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="9"/>
+    <col min="8" max="16384" width="21.453125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="32"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1828,9 +1829,9 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1841,11 +1842,11 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1856,11 +1857,11 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1871,11 +1872,11 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1886,11 +1887,11 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1899,11 +1900,11 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="16" t="s">
         <v>160</v>
       </c>
@@ -1912,18 +1913,18 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1964,7 +1965,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1982,7 +1983,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2000,7 +2001,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2018,7 +2019,7 @@
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2038,7 +2039,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -2058,7 +2059,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2094,7 +2095,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -2115,7 +2116,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -2157,7 +2158,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -2178,7 +2179,7 @@
       </c>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>13</v>
       </c>
@@ -2199,7 +2200,7 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -2220,7 +2221,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="68" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -2258,7 +2259,7 @@
       </c>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -2276,7 +2277,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -2294,7 +2295,7 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -2315,7 +2316,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -2336,7 +2337,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -2397,7 +2398,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -2415,7 +2416,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -2433,7 +2434,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -2451,7 +2452,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="102" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -2511,7 +2512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -2531,7 +2532,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -2549,7 +2550,7 @@
       </c>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -2567,7 +2568,7 @@
       </c>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -2585,7 +2586,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>34</v>
       </c>
@@ -2603,7 +2604,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>35</v>
       </c>
@@ -2624,7 +2625,7 @@
       </c>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -2645,7 +2646,7 @@
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="255" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -2665,7 +2666,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="170" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -2743,7 +2744,7 @@
       </c>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="136" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="238" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="170" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>49</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>50</v>
       </c>
@@ -2921,7 +2922,7 @@
       </c>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>51</v>
       </c>
@@ -2939,7 +2940,7 @@
       </c>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>52</v>
       </c>
@@ -2957,7 +2958,7 @@
       </c>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>53</v>
       </c>
@@ -2975,7 +2976,7 @@
       </c>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>54</v>
       </c>
@@ -2993,7 +2994,7 @@
       </c>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>55</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>56</v>
       </c>
@@ -3031,7 +3032,7 @@
       </c>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>57</v>
       </c>
@@ -3049,7 +3050,7 @@
       </c>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>58</v>
       </c>
@@ -3067,7 +3068,7 @@
       </c>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>59</v>
       </c>
@@ -3085,7 +3086,7 @@
       </c>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>60</v>
       </c>
@@ -3105,7 +3106,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="221" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>61</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>62</v>
       </c>
@@ -3147,7 +3148,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>63</v>
       </c>
@@ -3166,7 +3167,7 @@
       <c r="F72" s="26"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>64</v>
       </c>
@@ -3184,7 +3185,7 @@
       </c>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>65</v>
       </c>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="G74" s="19"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>66</v>
       </c>
@@ -3220,7 +3221,7 @@
       </c>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>67</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>68</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>69</v>
       </c>
@@ -3280,7 +3281,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>70</v>
       </c>
@@ -3298,7 +3299,7 @@
       </c>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>71</v>
       </c>
@@ -3316,7 +3317,7 @@
       </c>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>72</v>
       </c>
@@ -3334,7 +3335,7 @@
       </c>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>73</v>
       </c>
@@ -3352,7 +3353,7 @@
       </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>74</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>75</v>
       </c>
@@ -3390,133 +3391,133 @@
       </c>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>76</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="C85" s="37" t="s">
+      <c r="C85" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="D85" s="38" t="s">
+      <c r="D85" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E85" s="38">
+      <c r="E85" s="32">
         <v>1</v>
       </c>
-      <c r="F85" s="38"/>
-      <c r="G85" s="37" t="s">
+      <c r="F85" s="32"/>
+      <c r="G85" s="31" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>77</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="31" t="s">
         <v>266</v>
       </c>
-      <c r="C86" s="37" t="s">
+      <c r="C86" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="38" t="s">
+      <c r="D86" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E86" s="38">
+      <c r="E86" s="32">
         <v>1</v>
       </c>
-      <c r="F86" s="38"/>
-      <c r="G86" s="37" t="s">
+      <c r="F86" s="32"/>
+      <c r="G86" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="238" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>78</v>
       </c>
-      <c r="B87" s="37" t="s">
+      <c r="B87" s="31" t="s">
         <v>265</v>
       </c>
-      <c r="C87" s="37" t="s">
+      <c r="C87" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="38" t="s">
+      <c r="D87" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E87" s="38">
+      <c r="E87" s="32">
         <v>1</v>
       </c>
-      <c r="F87" s="38"/>
-      <c r="G87" s="37" t="s">
+      <c r="F87" s="32"/>
+      <c r="G87" s="31" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>79</v>
       </c>
-      <c r="B88" s="37" t="s">
+      <c r="B88" s="31" t="s">
         <v>267</v>
       </c>
-      <c r="C88" s="37" t="s">
+      <c r="C88" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E88" s="38">
+      <c r="E88" s="32">
         <v>1</v>
       </c>
-      <c r="F88" s="38"/>
-      <c r="G88" s="37" t="s">
+      <c r="F88" s="32"/>
+      <c r="G88" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="153" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>80</v>
       </c>
-      <c r="B89" s="37" t="s">
+      <c r="B89" s="31" t="s">
         <v>269</v>
       </c>
-      <c r="C89" s="37" t="s">
+      <c r="C89" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="38">
+      <c r="E89" s="32">
         <v>1</v>
       </c>
-      <c r="F89" s="38"/>
-      <c r="G89" s="37" t="s">
+      <c r="F89" s="32"/>
+      <c r="G89" s="31" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>81</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="31" t="s">
         <v>268</v>
       </c>
-      <c r="C90" s="37" t="s">
+      <c r="C90" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="D90" s="38" t="s">
+      <c r="D90" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="E90" s="38">
+      <c r="E90" s="32">
         <v>1</v>
       </c>
-      <c r="F90" s="38"/>
-      <c r="G90" s="37" t="s">
+      <c r="F90" s="32"/>
+      <c r="G90" s="31" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>77</v>
       </c>
@@ -3534,7 +3535,7 @@
       </c>
       <c r="G91" s="19"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>78</v>
       </c>
@@ -3555,7 +3556,7 @@
       </c>
       <c r="G92" s="19"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>79</v>
       </c>
@@ -3573,7 +3574,7 @@
       </c>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>80</v>
       </c>
@@ -3591,7 +3592,7 @@
       </c>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
@@ -3623,15 +3624,15 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="27.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.90625" style="1" customWidth="1"/>
     <col min="2" max="2" width="91" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3643,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -3664,7 +3665,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>227</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -3694,7 +3695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
@@ -3705,7 +3706,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>204</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>208</v>
       </c>
@@ -3727,7 +3728,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>228</v>
       </c>
@@ -3749,7 +3750,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>233</v>
       </c>
@@ -3760,7 +3761,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>257</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2074109-12E3-453B-B7DF-7200CDE5283D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950943B4-89FB-4A80-A1F1-9819A377FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="8440" yWindow="6180" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="275">
   <si>
     <t>備註說明</t>
   </si>
@@ -1167,6 +1167,22 @@
 6:SG社會責任及公司治理 
 7:ESG環境、社會責任及公司治理
 (2022.4.21異動)by 昱衡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展期次數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原額度編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RenewCnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OldFacmNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1797,24 +1813,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="4" customWidth="1"/>
     <col min="3" max="3" width="31" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" style="28" customWidth="1"/>
-    <col min="5" max="6" width="4.6328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="28" customWidth="1"/>
+    <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="49" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="9"/>
+    <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
@@ -1829,7 +1845,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="3" t="s">
@@ -1842,7 +1858,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>56</v>
       </c>
@@ -1857,7 +1873,7 @@
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
@@ -1872,7 +1888,7 @@
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>64</v>
       </c>
@@ -1887,7 +1903,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
         <v>58</v>
       </c>
@@ -1900,7 +1916,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
@@ -1913,7 +1929,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>60</v>
       </c>
@@ -1924,7 +1940,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1947,7 +1963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>1</v>
       </c>
@@ -1965,7 +1981,7 @@
       </c>
       <c r="G10" s="19"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1983,7 +1999,7 @@
       </c>
       <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
@@ -2001,7 +2017,7 @@
       </c>
       <c r="G12" s="19"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
@@ -2019,7 +2035,7 @@
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
@@ -2039,7 +2055,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>6</v>
       </c>
@@ -2059,7 +2075,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
@@ -2077,7 +2093,7 @@
       </c>
       <c r="G16" s="19"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -2095,7 +2111,7 @@
       </c>
       <c r="G17" s="19"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -2116,7 +2132,7 @@
       </c>
       <c r="G18" s="19"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>10</v>
       </c>
@@ -2137,7 +2153,7 @@
       </c>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11</v>
       </c>
@@ -2158,7 +2174,7 @@
       </c>
       <c r="G20" s="19"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>12</v>
       </c>
@@ -2179,7 +2195,7 @@
       </c>
       <c r="G21" s="19"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>13</v>
       </c>
@@ -2200,7 +2216,7 @@
       </c>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
@@ -2221,7 +2237,7 @@
       </c>
       <c r="G23" s="19"/>
     </row>
-    <row r="24" spans="1:7" ht="68" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
@@ -2241,7 +2257,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>16</v>
       </c>
@@ -2259,7 +2275,7 @@
       </c>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
@@ -2277,7 +2293,7 @@
       </c>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
@@ -2295,7 +2311,7 @@
       </c>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
@@ -2316,7 +2332,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>20</v>
       </c>
@@ -2337,7 +2353,7 @@
       </c>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
@@ -2360,7 +2376,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="85" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>22</v>
       </c>
@@ -2380,7 +2396,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>23</v>
       </c>
@@ -2398,7 +2414,7 @@
       </c>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -2416,7 +2432,7 @@
       </c>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -2434,7 +2450,7 @@
       </c>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -2452,7 +2468,7 @@
       </c>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
@@ -2472,7 +2488,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
@@ -2492,7 +2508,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="102" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -2512,7 +2528,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -2532,7 +2548,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -2550,7 +2566,7 @@
       </c>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -2568,7 +2584,7 @@
       </c>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -2586,7 +2602,7 @@
       </c>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>34</v>
       </c>
@@ -2604,7 +2620,7 @@
       </c>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>35</v>
       </c>
@@ -2625,7 +2641,7 @@
       </c>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
@@ -2646,7 +2662,7 @@
       </c>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" ht="255" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" ht="243" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
@@ -2666,7 +2682,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -2686,7 +2702,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="170" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
@@ -2706,7 +2722,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>40</v>
       </c>
@@ -2726,7 +2742,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>41</v>
       </c>
@@ -2744,7 +2760,7 @@
       </c>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="136" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
@@ -2764,7 +2780,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>43</v>
       </c>
@@ -2784,7 +2800,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>44</v>
       </c>
@@ -2804,7 +2820,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>45</v>
       </c>
@@ -2824,7 +2840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>46</v>
       </c>
@@ -2844,7 +2860,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="68" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="238" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>48</v>
       </c>
@@ -2884,7 +2900,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="170" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>49</v>
       </c>
@@ -2904,7 +2920,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>50</v>
       </c>
@@ -2922,7 +2938,7 @@
       </c>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>51</v>
       </c>
@@ -2940,7 +2956,7 @@
       </c>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>52</v>
       </c>
@@ -2958,7 +2974,7 @@
       </c>
       <c r="G61" s="19"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>53</v>
       </c>
@@ -2976,7 +2992,7 @@
       </c>
       <c r="G62" s="19"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>54</v>
       </c>
@@ -2994,7 +3010,7 @@
       </c>
       <c r="G63" s="19"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>55</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>56</v>
       </c>
@@ -3032,7 +3048,7 @@
       </c>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>57</v>
       </c>
@@ -3050,7 +3066,7 @@
       </c>
       <c r="G66" s="19"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>58</v>
       </c>
@@ -3068,7 +3084,7 @@
       </c>
       <c r="G67" s="19"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>59</v>
       </c>
@@ -3086,7 +3102,7 @@
       </c>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>60</v>
       </c>
@@ -3106,7 +3122,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="221" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>61</v>
       </c>
@@ -3127,7 +3143,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>62</v>
       </c>
@@ -3148,7 +3164,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>63</v>
       </c>
@@ -3167,7 +3183,7 @@
       <c r="F72" s="26"/>
       <c r="G72" s="25"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>64</v>
       </c>
@@ -3185,7 +3201,7 @@
       </c>
       <c r="G73" s="19"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>65</v>
       </c>
@@ -3203,7 +3219,7 @@
       </c>
       <c r="G74" s="19"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>66</v>
       </c>
@@ -3221,7 +3237,7 @@
       </c>
       <c r="G75" s="19"/>
     </row>
-    <row r="76" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>67</v>
       </c>
@@ -3241,7 +3257,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>68</v>
       </c>
@@ -3261,7 +3277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>69</v>
       </c>
@@ -3281,7 +3297,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>70</v>
       </c>
@@ -3299,7 +3315,7 @@
       </c>
       <c r="G79" s="21"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>71</v>
       </c>
@@ -3317,7 +3333,7 @@
       </c>
       <c r="G80" s="21"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>72</v>
       </c>
@@ -3335,7 +3351,7 @@
       </c>
       <c r="G81" s="21"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>73</v>
       </c>
@@ -3353,7 +3369,7 @@
       </c>
       <c r="G82" s="19"/>
     </row>
-    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>74</v>
       </c>
@@ -3373,7 +3389,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>75</v>
       </c>
@@ -3391,7 +3407,7 @@
       </c>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>76</v>
       </c>
@@ -3412,7 +3428,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>77</v>
       </c>
@@ -3433,7 +3449,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="238" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>78</v>
       </c>
@@ -3454,7 +3470,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>79</v>
       </c>
@@ -3475,7 +3491,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="153" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>80</v>
       </c>
@@ -3496,7 +3512,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="51" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>81</v>
       </c>
@@ -3517,72 +3533,71 @@
         <v>263</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
-        <v>77</v>
-      </c>
-      <c r="B91" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B91" s="31" t="s">
+        <v>273</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E91" s="32">
+        <v>3</v>
+      </c>
+      <c r="F91" s="32"/>
+      <c r="G91" s="31"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>83</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="C92" s="31" t="s">
+        <v>272</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="32">
+        <v>3</v>
+      </c>
+      <c r="F92" s="32"/>
+      <c r="G92" s="31"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>84</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C93" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D93" s="4" t="s">
         <v>153</v>
-      </c>
-      <c r="E91" s="4">
-        <v>8</v>
-      </c>
-      <c r="G91" s="19"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A92" s="4">
-        <v>78</v>
-      </c>
-      <c r="B92" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C92" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E92" s="4">
-        <v>6</v>
-      </c>
-      <c r="F92" s="4">
-        <v>1</v>
-      </c>
-      <c r="G92" s="19"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A93" s="4">
-        <v>79</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>154</v>
       </c>
       <c r="E93" s="4">
         <v>8</v>
       </c>
       <c r="G93" s="19"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>123</v>
@@ -3590,13 +3605,52 @@
       <c r="E94" s="4">
         <v>6</v>
       </c>
+      <c r="F94" s="4">
+        <v>1</v>
+      </c>
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>86</v>
+      </c>
+      <c r="B95" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E95" s="4">
+        <v>8</v>
+      </c>
+      <c r="G95" s="19"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>87</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E96" s="4">
+        <v>6</v>
+      </c>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3624,15 +3678,15 @@
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.90625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="91" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>65</v>
       </c>
@@ -3643,7 +3697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>143</v>
       </c>
@@ -3654,7 +3708,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>144</v>
       </c>
@@ -3665,7 +3719,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>155</v>
       </c>
@@ -3673,7 +3727,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>227</v>
       </c>
@@ -3684,7 +3738,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>161</v>
       </c>
@@ -3695,7 +3749,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>174</v>
       </c>
@@ -3706,7 +3760,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>204</v>
       </c>
@@ -3717,7 +3771,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>208</v>
       </c>
@@ -3728,7 +3782,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>214</v>
       </c>
@@ -3739,7 +3793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>228</v>
       </c>
@@ -3750,7 +3804,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>233</v>
       </c>
@@ -3761,7 +3815,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>242</v>
       </c>
@@ -3772,7 +3826,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>257</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950943B4-89FB-4A80-A1F1-9819A377FDF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EB5F9-6335-4835-8D1A-11AE7E764F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="278">
   <si>
     <t>備註說明</t>
   </si>
@@ -1185,12 +1185,25 @@
     <t>OldFacmNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>額度設定日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SettingDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企金:額度核准時將申請檔內准駁日期寫入[額度設定日
+ELOAN:擔保品案件在上送的時候，會回寫額度設定日，傳的日期就是上送當下的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1257,6 +1270,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
@@ -1357,7 +1377,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1474,6 +1494,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1813,10 +1836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3571,42 +3594,42 @@
       <c r="F92" s="32"/>
       <c r="G92" s="31"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>84</v>
       </c>
-      <c r="B93" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>69</v>
+      <c r="B93" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C93" s="31" t="s">
+        <v>275</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E93" s="4">
         <v>8</v>
       </c>
-      <c r="G93" s="19"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="31" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>85</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="E94" s="4">
-        <v>6</v>
-      </c>
-      <c r="F94" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G94" s="19"/>
     </row>
@@ -3615,16 +3638,19 @@
         <v>86</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E95" s="4">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="F95" s="4">
+        <v>1</v>
       </c>
       <c r="G95" s="19"/>
     </row>
@@ -3633,24 +3659,42 @@
         <v>87</v>
       </c>
       <c r="B96" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E96" s="4">
+        <v>8</v>
+      </c>
+      <c r="G96" s="19"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>88</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C96" s="16" t="s">
+      <c r="C97" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E97" s="4">
         <v>6</v>
       </c>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
+      <c r="G97" s="19"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EB5F9-6335-4835-8D1A-11AE7E764F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E1B6E-376D-472D-80FE-E23C2F4476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
   <si>
     <t>備註說明</t>
   </si>
@@ -1196,6 +1196,25 @@
   <si>
     <t>企金:額度核准時將申請檔內准駁日期寫入[額度設定日
 ELOAN:擔保品案件在上送的時候，會回寫額度設定日，傳的日期就是上送當下的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定動工之一定期間</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際興建年月</t>
+  </si>
+  <si>
+    <t>StarBuildingPeriod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StarBuildingYM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.3新增:規定管制代碼RuleCode=08:購地貸款(央行管制)才需寫入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,7 +1396,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1477,6 +1496,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1495,7 +1520,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1836,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B101" sqref="B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1854,10 +1879,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1869,8 +1894,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1882,10 +1907,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1897,10 +1922,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1912,10 +1937,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1927,10 +1952,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1940,10 +1965,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="16" t="s">
         <v>160</v>
       </c>
@@ -1953,10 +1978,10 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -3598,7 +3623,7 @@
       <c r="A93" s="4">
         <v>84</v>
       </c>
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="33" t="s">
         <v>276</v>
       </c>
       <c r="C93" s="31" t="s">
@@ -3615,57 +3640,60 @@
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>85</v>
       </c>
-      <c r="B94" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="16" t="s">
-        <v>69</v>
+      <c r="B94" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="C94" s="31" t="s">
+        <v>278</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E94" s="4">
-        <v>8</v>
-      </c>
-      <c r="G94" s="19"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F94" s="32"/>
+      <c r="G94" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
-      <c r="B95" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>38</v>
+      <c r="B95" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>279</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E95" s="4">
-        <v>6</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
-      <c r="G95" s="19"/>
+        <v>5</v>
+      </c>
+      <c r="F95" s="32"/>
+      <c r="G95" s="31" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>87</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E96" s="4">
         <v>8</v>
@@ -3677,10 +3705,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>123</v>
@@ -3688,13 +3716,52 @@
       <c r="E97" s="4">
         <v>6</v>
       </c>
+      <c r="F97" s="4">
+        <v>1</v>
+      </c>
       <c r="G97" s="19"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
+      <c r="A98" s="4">
+        <v>89</v>
+      </c>
+      <c r="B98" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="4">
+        <v>8</v>
+      </c>
+      <c r="G98" s="19"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
+        <v>90</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E99" s="4">
+        <v>6</v>
+      </c>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483E1B6E-376D-472D-80FE-E23C2F4476D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A964778-31A2-4687-979C-3224F2D1F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="284">
   <si>
     <t>備註說明</t>
   </si>
@@ -1199,22 +1199,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>約定動工之一定期間</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>實際興建年月</t>
   </si>
   <si>
-    <t>StarBuildingPeriod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>StarBuildingYM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2022.8.3新增:規定管制代碼RuleCode=08:購地貸款(央行管制)才需寫入</t>
+    <t>約定動工年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.8.3新增欄位:規定管制代碼RuleCode=08:購地貸款(央行管制)使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PreStarBuildingYM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.9.15異動欄位:規定管制代碼RuleCode=08:購地貸款(央行管制)使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1396,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1502,6 +1506,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1520,7 +1527,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1863,8 +1870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1879,10 +1886,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1894,8 +1901,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1907,10 +1914,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1922,10 +1929,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1937,10 +1944,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="38"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1952,10 +1959,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1965,10 +1972,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="16" t="s">
         <v>160</v>
       </c>
@@ -1978,10 +1985,10 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="38"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -3644,32 +3651,32 @@
       <c r="A94" s="4">
         <v>85</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B94" s="42" t="s">
+        <v>282</v>
+      </c>
+      <c r="C94" s="31" t="s">
         <v>280</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>278</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="4">
-        <v>2</v>
+      <c r="E94" s="27">
+        <v>5</v>
       </c>
       <c r="F94" s="32"/>
       <c r="G94" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
-      <c r="B95" s="41" t="s">
-        <v>281</v>
+      <c r="B95" s="35" t="s">
+        <v>279</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>122</v>
@@ -3679,7 +3686,7 @@
       </c>
       <c r="F95" s="32"/>
       <c r="G95" s="31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A964778-31A2-4687-979C-3224F2D1F7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EC64F-3BD8-4376-8271-D072949E66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1400,7 +1400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1509,6 +1509,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1527,8 +1530,8 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1870,7 +1873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
@@ -1886,10 +1889,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="38"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1901,8 +1904,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1914,10 +1917,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="40"/>
+      <c r="B3" s="41"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1929,10 +1932,10 @@
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1944,10 +1947,10 @@
       <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1959,10 +1962,10 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="16" t="s">
         <v>75</v>
       </c>
@@ -1972,10 +1975,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="41"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="16" t="s">
         <v>160</v>
       </c>
@@ -1985,10 +1988,10 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -3651,7 +3654,7 @@
       <c r="A94" s="4">
         <v>85</v>
       </c>
-      <c r="B94" s="42" t="s">
+      <c r="B94" s="36" t="s">
         <v>282</v>
       </c>
       <c r="C94" s="31" t="s">
@@ -3660,7 +3663,7 @@
       <c r="D94" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E94" s="27">
+      <c r="E94" s="43">
         <v>5</v>
       </c>
       <c r="F94" s="32"/>
@@ -3681,7 +3684,7 @@
       <c r="D95" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E95" s="43">
         <v>5</v>
       </c>
       <c r="F95" s="32"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,37 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33EC64F-3BD8-4376-8271-D072949E66A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56C762-CE41-4713-AB56-83F5D90A601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="1104" windowWidth="19620" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="304">
   <si>
     <t>備註說明</t>
   </si>
@@ -918,10 +908,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>違約適用方式是否按商品設定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NVARCHAR2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1221,12 +1207,103 @@
     <t>2022.9.15異動欄位:規定管制代碼RuleCode=08:購地貸款(央行管制)使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Y:是
+N:否</t>
+  </si>
+  <si>
+    <t>共用代碼檔
+1:即時收取
+2:領清償證明時收取</t>
+  </si>
+  <si>
+    <t>BreachFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否綁約</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約適用方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachGetCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約金收取方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProhibitMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制清償期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約金百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachDecreaseMonth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約金分段月數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachDecrease</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分段遞減百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachStartPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>還款起算比例%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+001:綁約[按年分段]
+002:綁約[按月分段]
+003:依核准額度
+004:依撥款金額
+005:依提前償還金額</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:是
+N:否(企金自行輸入違約適用說明)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否適用違約設定方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1303,6 +1380,14 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1395,12 +1480,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1425,7 +1513,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1434,19 +1522,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1455,17 +1540,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1479,16 +1558,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,11 +1579,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1530,12 +1606,10 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{9E74E093-0387-4166-A86A-3DDC6586B713}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1871,28 +1945,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.88671875" style="4" customWidth="1"/>
     <col min="2" max="2" width="23.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="31" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="31" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="24" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="49" style="4" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -1904,8 +1978,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -1917,10 +1991,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="41"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -1928,14 +2002,14 @@
         <v>63</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -1943,14 +2017,14 @@
         <v>116</v>
       </c>
       <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="40"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -1958,15 +2032,15 @@
         <v>117</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
       <c r="D6" s="6"/>
@@ -1975,37 +2049,37 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="16" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="15" t="s">
         <v>160</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="40"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -2017,7 +2091,7 @@
       <c r="F9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2025,28 +2099,28 @@
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>226</v>
+      <c r="C10" s="15" t="s">
+        <v>225</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
@@ -2055,16 +2129,16 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
@@ -2073,16 +2147,16 @@
       <c r="E12" s="4">
         <v>3</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="4" t="s">
@@ -2091,16 +2165,16 @@
       <c r="E13" s="4">
         <v>3</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>215</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2109,7 +2183,7 @@
       <c r="E14" s="4">
         <v>7</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="17" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2117,11 +2191,11 @@
       <c r="A15" s="4">
         <v>6</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>224</v>
+      <c r="C15" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>121</v>
@@ -2129,19 +2203,19 @@
       <c r="E15" s="4">
         <v>7</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>225</v>
+      <c r="G15" s="15" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>7</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>222</v>
+      <c r="C16" s="18" t="s">
+        <v>221</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>123</v>
@@ -2149,16 +2223,16 @@
       <c r="E16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>8</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2167,16 +2241,16 @@
       <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="17"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>9</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2188,16 +2262,16 @@
       <c r="F18" s="4">
         <v>4</v>
       </c>
-      <c r="G18" s="19"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>10</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -2209,16 +2283,16 @@
       <c r="F19" s="4">
         <v>4</v>
       </c>
-      <c r="G19" s="19"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>11</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2230,16 +2304,16 @@
       <c r="F20" s="4">
         <v>4</v>
       </c>
-      <c r="G20" s="19"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>12</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2251,16 +2325,16 @@
       <c r="F21" s="4">
         <v>4</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="17"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>13</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
@@ -2272,16 +2346,16 @@
       <c r="F22" s="4">
         <v>4</v>
       </c>
-      <c r="G22" s="19"/>
+      <c r="G22" s="17"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2293,16 +2367,16 @@
       <c r="F23" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="19"/>
+      <c r="G23" s="17"/>
     </row>
     <row r="24" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>15</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2311,7 +2385,7 @@
       <c r="E24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="15" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2319,11 +2393,11 @@
       <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>235</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>236</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -2331,17 +2405,17 @@
       <c r="E25" s="4">
         <v>2</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="17"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>17</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>237</v>
+      <c r="C26" s="15" t="s">
+        <v>236</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>121</v>
@@ -2349,16 +2423,16 @@
       <c r="E26" s="4">
         <v>2</v>
       </c>
-      <c r="G26" s="19"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>18</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2367,16 +2441,16 @@
       <c r="E27" s="4">
         <v>3</v>
       </c>
-      <c r="G27" s="19"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>19</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>172</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -2388,16 +2462,16 @@
       <c r="F28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="19"/>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>20</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>203</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2409,16 +2483,16 @@
       <c r="F29" s="4">
         <v>2</v>
       </c>
-      <c r="G29" s="19"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C30" s="16" t="s">
+      <c r="B30" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="C30" s="15" t="s">
         <v>173</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2430,7 +2504,7 @@
       <c r="F30" s="4">
         <v>2</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="19" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2438,10 +2512,10 @@
       <c r="A31" s="4">
         <v>22</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -2450,7 +2524,7 @@
       <c r="E31" s="4">
         <v>3</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2458,10 +2532,10 @@
       <c r="A32" s="4">
         <v>23</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="15" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2470,16 +2544,16 @@
       <c r="E32" s="4">
         <v>2</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="17"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="15" t="s">
         <v>44</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -2488,16 +2562,16 @@
       <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="G33" s="19"/>
+      <c r="G33" s="17"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2506,16 +2580,16 @@
       <c r="E34" s="4">
         <v>3</v>
       </c>
-      <c r="G34" s="19"/>
+      <c r="G34" s="17"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="17" t="s">
         <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -2524,7 +2598,7 @@
       <c r="E35" s="4">
         <v>8</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="17"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -2533,7 +2607,7 @@
       <c r="B36" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="15" t="s">
         <v>169</v>
       </c>
       <c r="D36" s="4" t="s">
@@ -2542,7 +2616,7 @@
       <c r="E36" s="4">
         <v>8</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="17" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2550,10 +2624,10 @@
       <c r="A37" s="4">
         <v>28</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>200</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -2562,7 +2636,7 @@
       <c r="E37" s="4">
         <v>1</v>
       </c>
-      <c r="G37" s="23" t="s">
+      <c r="G37" s="20" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2570,10 +2644,10 @@
       <c r="A38" s="4">
         <v>29</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D38" s="4" t="s">
@@ -2582,7 +2656,7 @@
       <c r="E38" s="4">
         <v>1</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="19" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2590,10 +2664,10 @@
       <c r="A39" s="4">
         <v>30</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="17" t="s">
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -2602,18 +2676,18 @@
       <c r="E39" s="4">
         <v>1</v>
       </c>
-      <c r="G39" s="16" t="s">
-        <v>250</v>
+      <c r="G39" s="15" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -2622,16 +2696,16 @@
       <c r="E40" s="4">
         <v>2</v>
       </c>
-      <c r="G40" s="19"/>
+      <c r="G40" s="17"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="15" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -2640,16 +2714,16 @@
       <c r="E41" s="4">
         <v>2</v>
       </c>
-      <c r="G41" s="19"/>
+      <c r="G41" s="17"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -2658,16 +2732,16 @@
       <c r="E42" s="4">
         <v>8</v>
       </c>
-      <c r="G42" s="19"/>
+      <c r="G42" s="17"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>34</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="15" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -2676,16 +2750,16 @@
       <c r="E43" s="4">
         <v>3</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="17"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>35</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="4" t="s">
@@ -2697,17 +2771,17 @@
       <c r="F44" s="4">
         <v>2</v>
       </c>
-      <c r="G44" s="19"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>246</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -2718,16 +2792,16 @@
       <c r="F45" s="4">
         <v>2</v>
       </c>
-      <c r="G45" s="19"/>
+      <c r="G45" s="17"/>
     </row>
     <row r="46" spans="1:7" ht="243" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="15" t="s">
         <v>192</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -2736,7 +2810,7 @@
       <c r="E46" s="4">
         <v>2</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="15" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2744,10 +2818,10 @@
       <c r="A47" s="4">
         <v>38</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -2756,7 +2830,7 @@
       <c r="E47" s="4">
         <v>1</v>
       </c>
-      <c r="G47" s="16" t="s">
+      <c r="G47" s="15" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2764,10 +2838,10 @@
       <c r="A48" s="4">
         <v>39</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="17" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
@@ -2776,7 +2850,7 @@
       <c r="E48" s="4">
         <v>2</v>
       </c>
-      <c r="G48" s="16" t="s">
+      <c r="G48" s="15" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2784,10 +2858,10 @@
       <c r="A49" s="4">
         <v>40</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="17" t="s">
         <v>29</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -2796,7 +2870,7 @@
       <c r="E49" s="4">
         <v>1</v>
       </c>
-      <c r="G49" s="16" t="s">
+      <c r="G49" s="15" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2804,10 +2878,10 @@
       <c r="A50" s="4">
         <v>41</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="17" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
@@ -2816,16 +2890,16 @@
       <c r="E50" s="4">
         <v>8</v>
       </c>
-      <c r="G50" s="19"/>
+      <c r="G50" s="17"/>
     </row>
     <row r="51" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>42</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="17" t="s">
         <v>48</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -2834,7 +2908,7 @@
       <c r="E51" s="4">
         <v>2</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="15" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2842,10 +2916,10 @@
       <c r="A52" s="4">
         <v>43</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="15" t="s">
         <v>217</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -2854,7 +2928,7 @@
       <c r="E52" s="4">
         <v>1</v>
       </c>
-      <c r="G52" s="16" t="s">
+      <c r="G52" s="15" t="s">
         <v>134</v>
       </c>
     </row>
@@ -2862,10 +2936,10 @@
       <c r="A53" s="4">
         <v>44</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -2874,7 +2948,7 @@
       <c r="E53" s="4">
         <v>1</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="15" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2882,10 +2956,10 @@
       <c r="A54" s="4">
         <v>45</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -2894,7 +2968,7 @@
       <c r="E54" s="4">
         <v>1</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>218</v>
       </c>
     </row>
@@ -2902,10 +2976,10 @@
       <c r="A55" s="4">
         <v>46</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -2914,18 +2988,18 @@
       <c r="E55" s="4">
         <v>1</v>
       </c>
-      <c r="G55" s="16" t="s">
-        <v>253</v>
+      <c r="G55" s="15" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>47</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="17" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="4" t="s">
@@ -2934,7 +3008,7 @@
       <c r="E56" s="4">
         <v>1</v>
       </c>
-      <c r="G56" s="16" t="s">
+      <c r="G56" s="15" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2942,10 +3016,10 @@
       <c r="A57" s="4">
         <v>48</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="16" t="s">
+      <c r="C57" s="15" t="s">
         <v>52</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -2954,7 +3028,7 @@
       <c r="E57" s="4">
         <v>1</v>
       </c>
-      <c r="G57" s="16" t="s">
+      <c r="G57" s="15" t="s">
         <v>141</v>
       </c>
     </row>
@@ -2962,10 +3036,10 @@
       <c r="A58" s="4">
         <v>49</v>
       </c>
-      <c r="B58" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>34</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -2974,18 +3048,18 @@
       <c r="E58" s="4">
         <v>2</v>
       </c>
-      <c r="G58" s="16" t="s">
-        <v>241</v>
+      <c r="G58" s="15" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>50</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C59" s="16" t="s">
+      <c r="C59" s="15" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="4" t="s">
@@ -2994,16 +3068,16 @@
       <c r="E59" s="4">
         <v>6</v>
       </c>
-      <c r="G59" s="19"/>
+      <c r="G59" s="17"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>51</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -3012,16 +3086,16 @@
       <c r="E60" s="4">
         <v>6</v>
       </c>
-      <c r="G60" s="19"/>
+      <c r="G60" s="17"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>52</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D61" s="4" t="s">
@@ -3030,16 +3104,16 @@
       <c r="E61" s="4">
         <v>6</v>
       </c>
-      <c r="G61" s="19"/>
+      <c r="G61" s="17"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>53</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="15" t="s">
         <v>42</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -3048,16 +3122,16 @@
       <c r="E62" s="4">
         <v>6</v>
       </c>
-      <c r="G62" s="19"/>
+      <c r="G62" s="17"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>54</v>
       </c>
-      <c r="B63" s="16" t="s">
+      <c r="B63" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C63" s="16" t="s">
+      <c r="C63" s="15" t="s">
         <v>11</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -3066,16 +3140,16 @@
       <c r="E63" s="4">
         <v>6</v>
       </c>
-      <c r="G63" s="19"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>55</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>211</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -3084,7 +3158,7 @@
       <c r="E64" s="4">
         <v>6</v>
       </c>
-      <c r="G64" s="16" t="s">
+      <c r="G64" s="15" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3092,10 +3166,10 @@
       <c r="A65" s="4">
         <v>56</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C65" s="15" t="s">
         <v>212</v>
       </c>
       <c r="D65" s="4" t="s">
@@ -3104,16 +3178,16 @@
       <c r="E65" s="4">
         <v>6</v>
       </c>
-      <c r="G65" s="19"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>57</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C66" s="15" t="s">
         <v>68</v>
       </c>
       <c r="D66" s="4" t="s">
@@ -3122,16 +3196,16 @@
       <c r="E66" s="4">
         <v>6</v>
       </c>
-      <c r="G66" s="19"/>
+      <c r="G66" s="17"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>58</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C67" s="15" t="s">
         <v>108</v>
       </c>
       <c r="D67" s="4" t="s">
@@ -3140,16 +3214,16 @@
       <c r="E67" s="4">
         <v>6</v>
       </c>
-      <c r="G67" s="19"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>59</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C68" s="15" t="s">
         <v>51</v>
       </c>
       <c r="D68" s="4" t="s">
@@ -3158,16 +3232,16 @@
       <c r="E68" s="4">
         <v>6</v>
       </c>
-      <c r="G68" s="19"/>
+      <c r="G68" s="17"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>60</v>
       </c>
-      <c r="B69" s="24" t="s">
+      <c r="B69" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C69" s="15" t="s">
         <v>191</v>
       </c>
       <c r="D69" s="4" t="s">
@@ -3176,7 +3250,7 @@
       <c r="E69" s="4">
         <v>6</v>
       </c>
-      <c r="G69" s="19" t="s">
+      <c r="G69" s="17" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3184,240 +3258,252 @@
       <c r="A70" s="4">
         <v>61</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E70" s="25">
         <v>2</v>
       </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="16" t="s">
-        <v>240</v>
+      <c r="F70" s="17"/>
+      <c r="G70" s="15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>62</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="C71" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="27" t="s">
+      <c r="C71" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="27">
+      <c r="E71" s="25">
         <v>1</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="F71" s="17"/>
+      <c r="G71" s="15" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="23">
         <v>63</v>
       </c>
-      <c r="B72" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="26" t="s">
-        <v>248</v>
-      </c>
-      <c r="D72" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="27">
-        <v>200</v>
-      </c>
-      <c r="F72" s="26"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="B72" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D72" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="23">
+        <v>1</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="23">
         <v>64</v>
       </c>
-      <c r="B73" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="4">
+      <c r="B73" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E73" s="23">
         <v>3</v>
       </c>
-      <c r="G73" s="19"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="F73" s="22"/>
+      <c r="G73" s="22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="23">
         <v>65</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E74" s="4">
-        <v>8</v>
-      </c>
-      <c r="G74" s="19"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="B74" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="D74" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="23">
+        <v>1</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="23">
         <v>66</v>
       </c>
-      <c r="B75" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E75" s="4">
-        <v>10</v>
-      </c>
-      <c r="G75" s="19"/>
-    </row>
-    <row r="76" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+      <c r="B75" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="23">
+        <v>3</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+    </row>
+    <row r="76" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="23">
         <v>67</v>
       </c>
-      <c r="B76" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="4">
-        <v>1</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="B76" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="23">
+        <v>5</v>
+      </c>
+      <c r="F76" s="22">
+        <v>2</v>
+      </c>
+      <c r="G76" s="22"/>
+    </row>
+    <row r="77" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="23">
         <v>68</v>
       </c>
-      <c r="B77" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="C77" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="4">
-        <v>1</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+      <c r="B77" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="23">
+        <v>3</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+    </row>
+    <row r="78" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="23">
         <v>69</v>
       </c>
-      <c r="B78" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="4">
-        <v>8</v>
-      </c>
-      <c r="G78" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+      <c r="B78" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="23">
+        <v>5</v>
+      </c>
+      <c r="F78" s="22">
+        <v>2</v>
+      </c>
+      <c r="G78" s="22"/>
+    </row>
+    <row r="79" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="23">
         <v>70</v>
       </c>
-      <c r="B79" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E79" s="4">
-        <v>4</v>
-      </c>
-      <c r="G79" s="21"/>
+      <c r="B79" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="23">
+        <v>3</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>71</v>
       </c>
-      <c r="B80" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E80" s="4">
-        <v>6</v>
-      </c>
-      <c r="G80" s="21"/>
+      <c r="B80" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="25">
+        <v>200</v>
+      </c>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>72</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D81" s="30" t="s">
-        <v>129</v>
+      <c r="B81" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="E81" s="4">
-        <v>8</v>
-      </c>
-      <c r="G81" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>73</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="C82" s="16" t="s">
-        <v>124</v>
+      <c r="B82" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>152</v>
@@ -3425,353 +3511,503 @@
       <c r="E82" s="4">
         <v>8</v>
       </c>
-      <c r="G82" s="19"/>
-    </row>
-    <row r="83" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="G82" s="17"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>74</v>
       </c>
-      <c r="B83" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>181</v>
+      <c r="B83" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E83" s="4">
-        <v>1</v>
-      </c>
-      <c r="G83" s="16" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G83" s="17"/>
+    </row>
+    <row r="84" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>75</v>
       </c>
-      <c r="B84" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>198</v>
+      <c r="B84" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>140</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E84" s="4">
-        <v>4</v>
-      </c>
-      <c r="G84" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>76</v>
       </c>
-      <c r="B85" s="31" t="s">
-        <v>238</v>
-      </c>
-      <c r="C85" s="31" t="s">
-        <v>239</v>
-      </c>
-      <c r="D85" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E85" s="32">
+      <c r="B85" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="4">
         <v>1</v>
       </c>
-      <c r="F85" s="32"/>
-      <c r="G85" s="31" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="G85" s="15" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>77</v>
       </c>
-      <c r="B86" s="31" t="s">
-        <v>266</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D86" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="32">
-        <v>1</v>
-      </c>
-      <c r="F86" s="32"/>
-      <c r="G86" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="B86" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="4">
+        <v>8</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>78</v>
       </c>
-      <c r="B87" s="31" t="s">
-        <v>265</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>259</v>
-      </c>
-      <c r="D87" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E87" s="32">
-        <v>1</v>
-      </c>
-      <c r="F87" s="32"/>
-      <c r="G87" s="31" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4</v>
+      </c>
+      <c r="G87" s="17"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>79</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E88" s="32">
-        <v>1</v>
-      </c>
-      <c r="F88" s="32"/>
-      <c r="G88" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+      <c r="B88" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="4">
+        <v>6</v>
+      </c>
+      <c r="G88" s="17"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>80</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D89" s="32" t="s">
+      <c r="B89" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="32">
-        <v>1</v>
-      </c>
-      <c r="F89" s="32"/>
-      <c r="G89" s="31" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="E89" s="4">
+        <v>8</v>
+      </c>
+      <c r="G89" s="17"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>81</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E90" s="32">
-        <v>1</v>
-      </c>
-      <c r="F90" s="32"/>
-      <c r="G90" s="31" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B90" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E90" s="4">
+        <v>8</v>
+      </c>
+      <c r="G90" s="17"/>
+    </row>
+    <row r="91" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>82</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C91" s="31" t="s">
-        <v>271</v>
+      <c r="B91" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="32">
-        <v>3</v>
-      </c>
-      <c r="F91" s="32"/>
-      <c r="G91" s="31"/>
+        <v>123</v>
+      </c>
+      <c r="E91" s="4">
+        <v>1</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>83</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="C92" s="31" t="s">
-        <v>272</v>
+      <c r="B92" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="32">
-        <v>3</v>
-      </c>
-      <c r="F92" s="32"/>
-      <c r="G92" s="31"/>
-    </row>
-    <row r="93" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+      <c r="E92" s="4">
+        <v>4</v>
+      </c>
+      <c r="G92" s="15"/>
+    </row>
+    <row r="93" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>84</v>
       </c>
-      <c r="B93" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C93" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E93" s="4">
-        <v>8</v>
-      </c>
-      <c r="F93" s="32"/>
-      <c r="G93" s="31" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B93" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="C93" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="D93" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="27">
+        <v>1</v>
+      </c>
+      <c r="F93" s="27"/>
+      <c r="G93" s="26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>85</v>
       </c>
-      <c r="B94" s="36" t="s">
-        <v>282</v>
-      </c>
-      <c r="C94" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E94" s="43">
-        <v>5</v>
-      </c>
-      <c r="F94" s="32"/>
-      <c r="G94" s="31" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="B94" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="C94" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="27">
+        <v>1</v>
+      </c>
+      <c r="F94" s="27"/>
+      <c r="G94" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
-      <c r="B95" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E95" s="43">
-        <v>5</v>
-      </c>
-      <c r="F95" s="32"/>
-      <c r="G95" s="31" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B95" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="C95" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E95" s="27">
+        <v>1</v>
+      </c>
+      <c r="F95" s="27"/>
+      <c r="G95" s="26" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>87</v>
       </c>
-      <c r="B96" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E96" s="4">
-        <v>8</v>
-      </c>
-      <c r="G96" s="19"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="C96" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E96" s="27">
+        <v>1</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>88</v>
       </c>
-      <c r="B97" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E97" s="4">
-        <v>6</v>
-      </c>
-      <c r="F97" s="4">
+      <c r="B97" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="C97" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E97" s="27">
         <v>1</v>
       </c>
-      <c r="G97" s="19"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F97" s="27"/>
+      <c r="G97" s="26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>89</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C98" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E98" s="4">
-        <v>8</v>
-      </c>
-      <c r="G98" s="19"/>
+      <c r="B98" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="C98" s="26" t="s">
+        <v>261</v>
+      </c>
+      <c r="D98" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E98" s="27">
+        <v>1</v>
+      </c>
+      <c r="F98" s="27"/>
+      <c r="G98" s="26" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>90</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="26" t="s">
+        <v>272</v>
+      </c>
+      <c r="C99" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E99" s="27">
+        <v>3</v>
+      </c>
+      <c r="F99" s="27"/>
+      <c r="G99" s="26"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
+        <v>91</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="C100" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" s="27">
+        <v>3</v>
+      </c>
+      <c r="F100" s="27"/>
+      <c r="G100" s="26"/>
+    </row>
+    <row r="101" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
+        <v>92</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="C101" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E101" s="4">
+        <v>8</v>
+      </c>
+      <c r="F101" s="27"/>
+      <c r="G101" s="26" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
+        <v>93</v>
+      </c>
+      <c r="B102" s="30" t="s">
+        <v>281</v>
+      </c>
+      <c r="C102" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E102" s="31">
+        <v>6</v>
+      </c>
+      <c r="F102" s="27"/>
+      <c r="G102" s="26" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
+        <v>94</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E103" s="31">
+        <v>6</v>
+      </c>
+      <c r="F103" s="27"/>
+      <c r="G103" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
+        <v>95</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E104" s="4">
+        <v>8</v>
+      </c>
+      <c r="G104" s="17"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
+        <v>96</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E105" s="4">
+        <v>6</v>
+      </c>
+      <c r="F105" s="4">
+        <v>1</v>
+      </c>
+      <c r="G105" s="17"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
+        <v>97</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8</v>
+      </c>
+      <c r="G106" s="17"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
+        <v>98</v>
+      </c>
+      <c r="B107" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C99" s="16" t="s">
+      <c r="C107" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E107" s="4">
         <v>6</v>
       </c>
-      <c r="G99" s="19"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
+      <c r="G107" s="17"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3823,7 +4059,7 @@
         <v>143</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>164</v>
@@ -3850,7 +4086,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>178</v>
@@ -3908,7 +4144,7 @@
         <v>214</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>175</v>
@@ -3916,21 +4152,21 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>175</v>
@@ -3938,10 +4174,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>175</v>
@@ -3949,13 +4185,13 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE56C762-CE41-4713-AB56-83F5D90A601A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0288389-7199-4C32-85C8-7E702E7A6B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="1104" windowWidth="19620" windowHeight="11856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="305">
   <si>
     <t>備註說明</t>
   </si>
@@ -1296,6 +1296,10 @@
   </si>
   <si>
     <t>是否適用違約設定方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdBreachFlag為N時寫入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1948,7 +1952,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3475,7 +3479,9 @@
         <v>200</v>
       </c>
       <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="G80" s="15" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="4">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0288389-7199-4C32-85C8-7E702E7A6B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9525C81-B59C-4675-84CF-57E22BC286AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="清償違約相關" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="350">
   <si>
     <t>備註說明</t>
   </si>
@@ -1302,12 +1303,169 @@
     <t>ProdBreachFlag為N時寫入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>AS400</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新系統</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>APLPAC</t>
+  </si>
+  <si>
+    <t>違約適用方式</t>
+  </si>
+  <si>
+    <t>APLPAT</t>
+  </si>
+  <si>
+    <t>違約率-金額</t>
+  </si>
+  <si>
+    <t>違約率-月數</t>
+  </si>
+  <si>
+    <t>APLPMN</t>
+  </si>
+  <si>
+    <t>違約還款月數</t>
+  </si>
+  <si>
+    <t>APLPMT</t>
+  </si>
+  <si>
+    <t>前段月數</t>
+  </si>
+  <si>
+    <t>APLNMN</t>
+  </si>
+  <si>
+    <t>違約未到月數</t>
+  </si>
+  <si>
+    <t>APLNER</t>
+  </si>
+  <si>
+    <t>禁領清償期限</t>
+  </si>
+  <si>
+    <t>ProhibitMonth</t>
+  </si>
+  <si>
+    <t>限制清償期限</t>
+  </si>
+  <si>
+    <t>APLPAN</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BreachGetCode</t>
+  </si>
+  <si>
+    <t>違約金收取方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">清償金類型  </t>
+  </si>
+  <si>
+    <t>基本利率名稱對照檔(TBLP)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>額度檔(APLP)</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSNBCD</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>001</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>綁約[按年分段]</t>
+  </si>
+  <si>
+    <t>002</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>綁約[按月分段]</t>
+  </si>
+  <si>
+    <t>003</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>依核准額度</t>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>依撥款金額</t>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>依提前償還金額</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>無餘額</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>有餘額</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>２５％上限</t>
+  </si>
+  <si>
+    <t>依還款金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>依未到期月</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約率分段</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>先月後金額</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>依核准額度</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約月數比</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>按月比例減</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>無資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1393,8 +1551,50 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1411,6 +1611,11 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
       </patternFill>
     </fill>
   </fills>
@@ -1484,15 +1689,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1610,10 +1819,41 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="1" xr:uid="{9E74E093-0387-4166-A86A-3DDC6586B713}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{6C9C6E16-EF16-49AF-95CD-00E18B335F7B}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{5CACEDB4-EB58-4288-AF05-AAD684F43835}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1951,8 +2191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4205,4 +4445,348 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A323231-C130-4AE8-A8E6-4467605930E4}">
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="H1" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="J1" s="39"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>327</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="F2" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="H2" s="49">
+        <v>1</v>
+      </c>
+      <c r="I2" s="39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J2" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>332</v>
+      </c>
+      <c r="H3" s="49">
+        <v>2</v>
+      </c>
+      <c r="I3" s="39" t="s">
+        <v>343</v>
+      </c>
+      <c r="J3" s="39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="F4" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="49">
+        <v>3</v>
+      </c>
+      <c r="I4" s="39" t="s">
+        <v>344</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="43"/>
+      <c r="D5" s="42"/>
+      <c r="F5" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="H5" s="49">
+        <v>4</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="42"/>
+      <c r="F6" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="H6" s="49">
+        <v>5</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="42"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="49">
+        <v>6</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>336</v>
+      </c>
+      <c r="J7" s="39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="49">
+        <v>7</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="49">
+        <v>8</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>348</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="49">
+        <v>9</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="48" t="s">
+        <v>328</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>325</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9525C81-B59C-4675-84CF-57E22BC286AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C1FA2-EA2C-43DF-8381-2A1A6066355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="354">
   <si>
     <t>備註說明</t>
   </si>
@@ -1458,6 +1458,22 @@
   </si>
   <si>
     <t>無資料</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>901</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>902</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>903</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>904</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1701,7 +1717,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1801,6 +1817,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1818,35 +1857,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2192,7 +2202,7 @@
   <dimension ref="A1:G108"/>
   <sheetViews>
     <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:C79"/>
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2207,10 +2217,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="43"/>
       <c r="C1" s="5" t="s">
         <v>151</v>
       </c>
@@ -2222,8 +2232,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2235,10 +2245,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -2250,10 +2260,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="13" t="s">
         <v>149</v>
       </c>
@@ -2265,10 +2275,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
         <v>150</v>
       </c>
@@ -2280,10 +2290,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
@@ -2293,10 +2303,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="15" t="s">
         <v>160</v>
       </c>
@@ -2306,10 +2316,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -4452,7 +4462,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4468,320 +4478,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33" t="s">
         <v>306</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="39" t="s">
         <v>306</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>287</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="34" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="39"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="38" t="s">
         <v>327</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="F2" s="46" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="F2" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="H2" s="49">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="F4" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="37"/>
+      <c r="D5" s="36"/>
+      <c r="F5" s="39" t="s">
+        <v>335</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>313</v>
+      </c>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36"/>
+      <c r="F6" s="39" t="s">
+        <v>337</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
+        <v>314</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+      <c r="F7" s="39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="H7" s="41">
         <v>1</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I7" s="33" t="s">
         <v>342</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J7" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>308</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>332</v>
-      </c>
-      <c r="H3" s="49">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
+        <v>316</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="37"/>
+      <c r="D8" s="36"/>
+      <c r="F8" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="H8" s="41">
         <v>2</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I8" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J8" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
-        <v>309</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>310</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="F4" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>334</v>
-      </c>
-      <c r="H4" s="49">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>321</v>
+      </c>
+      <c r="F9" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H9" s="41">
         <v>3</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I9" s="33" t="s">
         <v>344</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J9" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>311</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="42"/>
-      <c r="F5" s="46" t="s">
-        <v>335</v>
-      </c>
-      <c r="G5" s="39" t="s">
+    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="F10" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="41">
+        <v>4</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="33" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="41">
+        <v>905</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="H11" s="41">
+        <v>5</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="41">
+        <v>906</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="49">
-        <v>4</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>345</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
-        <v>312</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>313</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="42"/>
-      <c r="F6" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>338</v>
-      </c>
-      <c r="H6" s="49">
-        <v>5</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>346</v>
-      </c>
-      <c r="J6" s="39" t="s">
+      <c r="H12" s="41">
+        <v>6</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="J12" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>314</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="42"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="49">
-        <v>6</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="J7" s="39" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="41">
+        <v>907</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="H13" s="41">
+        <v>7</v>
+      </c>
+      <c r="I13" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="J13" s="33" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
-        <v>316</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="42"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="49">
-        <v>7</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>319</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="49">
+    <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="41">
+        <v>908</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="41">
         <v>8</v>
       </c>
-      <c r="I9" s="39" t="s">
+      <c r="I14" s="33" t="s">
         <v>348</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J14" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="49">
+    <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="F15" s="41">
+        <v>909</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>341</v>
+      </c>
+      <c r="H15" s="41">
         <v>9</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I15" s="33" t="s">
         <v>341</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J15" s="33" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="48" t="s">
+    <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B16" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>323</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>291</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>297</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="48" t="s">
-        <v>328</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="C16" s="41" t="s">
+      <c r="C16" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="35" t="s">
         <v>300</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71C1FA2-EA2C-43DF-8381-2A1A6066355B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="清償違約相關" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -510,12 +509,6 @@
   </si>
   <si>
     <t>FreqBase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共用代碼檔
-0:非企金單位  
-1:企金推展課</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -896,10 +889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>案件隸屬單位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y:是
 N:否</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1038,10 +1027,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>違約適用說明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UtilBal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,10 +1207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否綁約</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BreachCode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1291,11 +1272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Y:是
-N:否(企金自行輸入違約適用說明)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否適用違約設定方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1475,12 +1451,35 @@
   <si>
     <t>904</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件隸屬單位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用代碼檔
+0:非企金單位  
+1:企金推展課</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>違約適用說明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否限制清償</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y:適用(是否限制清償為N時，顯示&lt;無&gt;)
+N:不適用(案件隸屬企金時自行輸入違約適用說明)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1717,7 +1716,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1858,12 +1857,15 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{9E74E093-0387-4166-A86A-3DDC6586B713}"/>
-    <cellStyle name="一般 2 2" xfId="3" xr:uid="{6C9C6E16-EF16-49AF-95CD-00E18B335F7B}"/>
-    <cellStyle name="一般 3" xfId="2" xr:uid="{5CACEDB4-EB58-4288-AF05-AAD684F43835}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="3"/>
+    <cellStyle name="一般 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1954,23 +1956,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2006,23 +1991,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2198,11 +2166,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2212,8 +2180,9 @@
     <col min="3" max="3" width="31" style="21" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="24" customWidth="1"/>
     <col min="5" max="6" width="4.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="49" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="9"/>
+    <col min="7" max="7" width="56.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="41.88671875" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2222,10 +2191,10 @@
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -2265,7 +2234,7 @@
       </c>
       <c r="B4" s="45"/>
       <c r="C4" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>116</v>
@@ -2280,7 +2249,7 @@
       </c>
       <c r="B5" s="45"/>
       <c r="C5" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>117</v>
@@ -2308,7 +2277,7 @@
       </c>
       <c r="B7" s="47"/>
       <c r="C7" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
@@ -2357,10 +2326,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -2390,7 +2359,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
@@ -2408,7 +2377,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>55</v>
@@ -2429,7 +2398,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>121</v>
@@ -2438,7 +2407,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2446,10 +2415,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>121</v>
@@ -2458,7 +2427,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2469,7 +2438,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>123</v>
@@ -2640,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -2648,10 +2617,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -2669,7 +2638,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>121</v>
@@ -2705,7 +2674,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>121</v>
@@ -2726,7 +2695,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>121</v>
@@ -2744,10 +2713,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>121</v>
@@ -2847,7 +2816,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E35" s="4">
         <v>8</v>
@@ -2859,19 +2828,19 @@
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>169</v>
-      </c>
       <c r="D36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E36" s="4">
         <v>8</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2879,10 +2848,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>199</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>200</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -2891,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
@@ -2911,7 +2880,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -2925,13 +2894,13 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -2981,7 +2950,7 @@
         <v>28</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E42" s="4">
         <v>8</v>
@@ -3032,10 +3001,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -3053,10 +3022,10 @@
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
@@ -3065,7 +3034,7 @@
         <v>2</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3073,7 +3042,7 @@
         <v>38</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>27</v>
@@ -3085,7 +3054,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -3093,7 +3062,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>25</v>
@@ -3105,7 +3074,7 @@
         <v>2</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3113,7 +3082,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>29</v>
@@ -3125,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
@@ -3139,7 +3108,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E50" s="4">
         <v>8</v>
@@ -3163,7 +3132,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3174,7 +3143,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>123</v>
@@ -3183,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>134</v>
+        <v>350</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3191,7 +3160,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>31</v>
@@ -3203,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3211,7 +3180,7 @@
         <v>45</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>32</v>
@@ -3223,7 +3192,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3231,7 +3200,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>39</v>
@@ -3243,7 +3212,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -3251,7 +3220,7 @@
         <v>47</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>49</v>
@@ -3263,7 +3232,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
@@ -3283,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="162" x14ac:dyDescent="0.3">
@@ -3291,7 +3260,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>34</v>
@@ -3303,7 +3272,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3404,7 +3373,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>123</v>
@@ -3413,18 +3382,18 @@
         <v>6</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>56</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -3434,7 +3403,7 @@
       </c>
       <c r="G65" s="17"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>57</v>
       </c>
@@ -3452,7 +3421,7 @@
       </c>
       <c r="G66" s="17"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>58</v>
       </c>
@@ -3470,7 +3439,7 @@
       </c>
       <c r="G67" s="17"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>59</v>
       </c>
@@ -3488,15 +3457,15 @@
       </c>
       <c r="G68" s="17"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>60</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>190</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>191</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>129</v>
@@ -3505,10 +3474,10 @@
         <v>6</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>61</v>
       </c>
@@ -3516,7 +3485,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>122</v>
@@ -3526,18 +3495,18 @@
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>62</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>129</v>
@@ -3547,18 +3516,19 @@
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="15" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+      <c r="H71" s="48"/>
+    </row>
+    <row r="72" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <v>63</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="D72" s="23" t="s">
         <v>129</v>
@@ -3568,18 +3538,18 @@
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A73" s="23">
         <v>64</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D73" s="23" t="s">
         <v>129</v>
@@ -3589,18 +3559,18 @@
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="22" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A74" s="23">
         <v>65</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D74" s="23" t="s">
         <v>129</v>
@@ -3610,18 +3580,18 @@
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <v>66</v>
       </c>
       <c r="B75" s="22" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D75" s="23" t="s">
         <v>122</v>
@@ -3632,15 +3602,15 @@
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <v>67</v>
       </c>
       <c r="B76" s="22" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D76" s="23" t="s">
         <v>122</v>
@@ -3653,15 +3623,15 @@
       </c>
       <c r="G76" s="22"/>
     </row>
-    <row r="77" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <v>68</v>
       </c>
       <c r="B77" s="22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D77" s="23" t="s">
         <v>122</v>
@@ -3672,15 +3642,15 @@
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
     </row>
-    <row r="78" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="23">
         <v>69</v>
       </c>
       <c r="B78" s="22" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D78" s="23" t="s">
         <v>122</v>
@@ -3693,15 +3663,15 @@
       </c>
       <c r="G78" s="22"/>
     </row>
-    <row r="79" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="23">
         <v>70</v>
       </c>
       <c r="B79" s="22" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D79" s="23" t="s">
         <v>122</v>
@@ -3712,25 +3682,25 @@
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>71</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E80" s="25">
         <v>200</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -3762,7 +3732,7 @@
         <v>40</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E82" s="4">
         <v>8</v>
@@ -3792,10 +3762,10 @@
         <v>75</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D84" s="4" t="s">
         <v>123</v>
@@ -3804,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3824,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -3832,19 +3802,19 @@
         <v>77</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D86" s="25" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E86" s="4">
         <v>8</v>
       </c>
       <c r="G86" s="17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -3852,10 +3822,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C87" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>185</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>123</v>
@@ -3870,10 +3840,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>123</v>
@@ -3888,10 +3858,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="C89" s="17" t="s">
         <v>187</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>188</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>129</v>
@@ -3912,7 +3882,7 @@
         <v>124</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E90" s="4">
         <v>8</v>
@@ -3924,10 +3894,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>123</v>
@@ -3936,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -3944,10 +3914,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>198</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>129</v>
@@ -3962,10 +3932,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C93" s="26" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D93" s="27" t="s">
         <v>129</v>
@@ -3975,7 +3945,7 @@
       </c>
       <c r="F93" s="27"/>
       <c r="G93" s="26" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3983,10 +3953,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C94" s="26" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D94" s="27" t="s">
         <v>129</v>
@@ -3996,7 +3966,7 @@
       </c>
       <c r="F94" s="27"/>
       <c r="G94" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
@@ -4004,10 +3974,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>129</v>
@@ -4017,7 +3987,7 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="26" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -4025,10 +3995,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>129</v>
@@ -4038,7 +4008,7 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -4046,10 +4016,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>129</v>
@@ -4059,7 +4029,7 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -4067,10 +4037,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>129</v>
@@ -4080,7 +4050,7 @@
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="26" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4088,10 +4058,10 @@
         <v>90</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>122</v>
@@ -4107,10 +4077,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>122</v>
@@ -4126,20 +4096,20 @@
         <v>92</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E101" s="4">
         <v>8</v>
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4147,10 +4117,10 @@
         <v>93</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>122</v>
@@ -4160,7 +4130,7 @@
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="26" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4168,10 +4138,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>122</v>
@@ -4181,7 +4151,7 @@
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4195,7 +4165,7 @@
         <v>69</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E104" s="4">
         <v>8</v>
@@ -4234,7 +4204,7 @@
         <v>70</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E106" s="4">
         <v>8</v>
@@ -4283,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4312,142 +4282,142 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -4458,10 +4428,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A323231-C130-4AE8-A8E6-4467605930E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4479,366 +4449,366 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H1" s="41" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="F2" s="39" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="F4" s="39" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="36"/>
       <c r="F5" s="39" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="36"/>
       <c r="F6" s="39" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="36"/>
       <c r="F7" s="39" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H7" s="41">
         <v>1</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
       <c r="F8" s="39" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="H8" s="41">
         <v>2</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F9" s="39" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="H9" s="41">
         <v>3</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="F10" s="39" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H10" s="41">
         <v>4</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F11" s="41">
         <v>905</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="H11" s="41">
         <v>5</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="F12" s="41">
         <v>906</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H12" s="41">
         <v>6</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F13" s="41">
         <v>907</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="H13" s="41">
         <v>7</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F14" s="41">
         <v>908</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="H14" s="41">
         <v>8</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F15" s="41">
         <v>909</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H15" s="41">
         <v>9</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDACE2F-F745-4C7C-B0FB-09AFF63D9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="清償違約相關" sheetId="3" r:id="rId3"/>
+    <sheet name="客戶別代碼" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="568">
   <si>
     <t>備註說明</t>
   </si>
@@ -659,19 +661,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>共用代碼檔
-00 一般
-01 員工
-02 首購
-03 關企公司
-04 關企員工
-05 保戶
-07 員工二親等
-09 新二階員工
-10 保貸戶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CustTypeCode</t>
   </si>
   <si>
@@ -844,24 +833,6 @@
   </si>
   <si>
     <t>BusinessOfficer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>規定管制代碼 
-00:一般
-01:自然人第三戶(央行管制)
-02:自然人第三戶且為高價住宅(央行管制)
-03:自然人第四戶以上(央行管制)
-04:自然人第四戶以上且為高價住宅(央行管制)
-05:自然人購置高價住宅(央行管制)
-06:法人購置住宅第一戶(央行管制)
-07:法人購置住宅第二戶以上(央行管制)
-08:購地貸款(央行管制)
-09:餘屋貸款(央行管制)
-10:工業區閒置土地抵押貸款(央行管制)
-11:增貸管制戶(舊央行管制)
-12:自然人特定地區第2戶購屋貸款(舊央行管制)
-13:投資戶(內部規範)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1475,12 +1446,925 @@
 N:不適用(案件隸屬企金時自行輸入違約適用說明)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>央行管制項目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制代碼依現行央行報送的代碼進行編列，請郁宏跟俞辛確認</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>與eLoan有相同的項目</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一層</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二層</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1碼英文</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>可預下生效日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>可預下停用日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>判斷是否顯示</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS400代碼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>代碼說明</t>
+  </si>
+  <si>
+    <t>ELOAN代碼</t>
+  </si>
+  <si>
+    <t>選項中文</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>上送AS400代碼</t>
+  </si>
+  <si>
+    <t>貸中系統(長度3)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制代碼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制項目代碼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制項目中文(長度30)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示順序</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>備註(長度30)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>管制生效日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>管制取消日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否啟用</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>C01</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>不需填寫</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B401</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司法人購置住宅第1戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>文號內有細分第1、第2戶之放貸條件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>B402</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司法人購置住宅第2戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>文號內有細分第3戶以上、高價之放貸條件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>首購</t>
+  </si>
+  <si>
+    <t>投資戶(內部規範)</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>B411</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人購置住宅第3戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>關企公司</t>
+  </si>
+  <si>
+    <t>自然人第３戶購屋貸款(央行管制)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S01</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>央行管制</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B412</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人購置住宅高價</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>關企員工</t>
+  </si>
+  <si>
+    <t>自然人第4戶以上購屋貸款(央行管制)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <r>
+      <t>B42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>保戶</t>
+  </si>
+  <si>
+    <t>購地貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款上限6.5成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>團體戶</t>
+  </si>
+  <si>
+    <t>購置高價住宅2戶內(央行管制)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款上限6成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>二等親屬</t>
+  </si>
+  <si>
+    <t>購置高價住宅3戶以上(央行管制)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B42</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款上限5成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>受災戶</t>
+  </si>
+  <si>
+    <t>公司法人購置住宅貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>餘屋貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>文號內有細分第2、第3戶以上之放貸條件</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>新二階員工</t>
+  </si>
+  <si>
+    <t>餘屋貸款(央行管制)</t>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>餘屋貸款上限5成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.管制生效日、管制取消日 皆可預先設定，功能判斷是否顯示該管制項目是用「是否啟用=Y」才顯示</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>991231+VIP-</t>
+  </si>
+  <si>
+    <t>工業區閒置土地(央行管制)</t>
+  </si>
+  <si>
+    <t>Z</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B43</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>餘屋貸款上限4成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.若案件建檔時，若該管制項目尚未生效，該管制項目仍需顯示</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>永慶房屋</t>
+  </si>
+  <si>
+    <t>自然人第２戶(央行管制)</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>B441</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-自然人3戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3.撥款時需卡控該管制項目若尚未生效，需顯示訊息並</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>警示</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>不可進行撥款，由經辦判斷是否可撥款</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>固特利契轉</t>
+  </si>
+  <si>
+    <t>增貸管制戶(央行管制)</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>B442</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-公司法人1戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.目前暫定只在撥款畫面顯示警示訊息，另外會有管制報表，後續有其他需求需顯「管制生效日&gt; 撥款日」再請user提出</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>信義房屋</t>
+  </si>
+  <si>
+    <t>整合貸</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C04</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B443</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-公司法人2戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.若該管制項目已有下「管制取消日」，在維護舊案件資料時，若未修改「客戶別、管制項目」，需顯示原申請案件的代碼</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>千禧房貸</t>
+  </si>
+  <si>
+    <t>優惠轉貸</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>B444</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-購地貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>青年優惠</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>B445</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-餘屋貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2000億優惠</t>
+  </si>
+  <si>
+    <t>VIP減帳管</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>B446</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款戶申請並經錄案-工業區閒置土地</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>規定管制項目中文</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>撥款日</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>退休員工</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <r>
+      <t>B45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區閒置土地抵押貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>自然人第2戶-112年7月</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統顯示「撥款日早於該管制項目的生效日，是否確定需撥款?」，按[確認]則進行撥款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>菁英專案</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <r>
+      <t>B45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區閒置土地抵押貸款-上限5.5成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>東方帝國</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <r>
+      <t>B45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區閒置土地抵押貸款-上限5成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <r>
+      <t>B45</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>工業區閒置土地抵押貸款-上限4成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人３戶</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>B460</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司法人購置住宅</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>花木釀宅</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>B471</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人第3戶以上購屋貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人２戶</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>自然人第4戶以上購屋貸款</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增貸管制件</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>B481</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人購置高價住宅-2戶以下</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>B482</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人購置高價住宅-3戶以上</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>8000億優惠</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C17</t>
+  </si>
+  <si>
+    <t>B483</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人購置高價住宅-上限4成</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>購地貸款</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>C18</t>
+  </si>
+  <si>
+    <t>B490</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人特定地區第2戶</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>C19</t>
+  </si>
+  <si>
+    <t>A001</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>增貸管制戶</t>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然人４戶</t>
+  </si>
+  <si>
+    <t>C20</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>優惠重購</t>
+  </si>
+  <si>
+    <t>C21</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>88風災</t>
+  </si>
+  <si>
+    <t>C22</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>內規投資戶</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>高價３戶</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>餘屋貸款</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
+    <t>高價2戶</t>
+  </si>
+  <si>
+    <t>C27</t>
+  </si>
+  <si>
+    <t>法人購屋</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>工業區閒置</t>
+  </si>
+  <si>
+    <t>C29</t>
+  </si>
+  <si>
+    <t>C30</t>
+  </si>
+  <si>
+    <t>客戶別代碼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-21_客戶別調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-08-21_規定管制代碼調整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1608,8 +2492,58 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F497D"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1633,8 +2567,86 @@
         <fgColor indexed="47"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1703,6 +2715,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1716,7 +2791,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1839,6 +2914,144 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1857,15 +3070,21 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="3"/>
-    <cellStyle name="一般 3" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1880,10 +3099,572 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1555751</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>198437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>377856</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="圖片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC182F1-D74E-469C-BEB1-8FF7089EDC2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12955271" y="6766877"/>
+          <a:ext cx="11151265" cy="3875871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBDB68A3-5644-468B-9ACE-C49B03AC58EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="9525"/>
+          <a:ext cx="171450" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2776A2-976C-40C4-B33E-C071C9E9CDE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="274320"/>
+          <a:ext cx="156210" cy="179070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1754186</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1865311</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63498</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="向左箭號圖說文字 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57FA5D9F-CF93-4ADD-9130-4E085A737609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14708186" y="9093198"/>
+          <a:ext cx="7540625" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+            <a:gd name="adj4" fmla="val 84247"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>有修改「規定管制代碼」時，按</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>鈕時，進行檢核下述檢核，若無修改</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>「規定管制代碼」</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>，則不執行下述檢核</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>撥款時需卡控該管制項目若尚未生效，需顯示訊息並警示不可進行撥款，由經辦判斷是否可撥款</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>若「</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管制項目若尚未生效</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管制生效日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>系統日」，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>系統顯示「管制項目的生效日為</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>YYYYMMDD</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>，是否確定需撥款</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>」，按</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>[</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>確認</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>則儲存</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>150812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{524C2DA8-7A4C-4AFD-BB1E-B71EF326048C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13073063" y="7921942"/>
+          <a:ext cx="12420918" cy="443230"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>515938</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="向左箭號圖說文字 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7CF902-8924-4394-ABBB-090DED8117CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24648478" y="7826693"/>
+          <a:ext cx="5025072" cy="498792"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 25000"/>
+            <a:gd name="adj3" fmla="val 25000"/>
+            <a:gd name="adj4" fmla="val 93017"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>依「規定管制代碼」資料表的「是否啟用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-TW" sz="1100"/>
+            <a:t>=Y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+            <a:t>」才顯示，不論「管制生效日」欄位是否大於當日</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1921,9 +3702,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1958,7 +3739,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1993,7 +3774,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2166,11 +3947,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2186,10 +3967,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="5" t="s">
         <v>150</v>
       </c>
@@ -2201,8 +3982,8 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -2214,10 +3995,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="92" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="46"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -2229,10 +4010,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="90" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="91"/>
       <c r="C4" s="13" t="s">
         <v>148</v>
       </c>
@@ -2244,10 +4025,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="13" t="s">
         <v>149</v>
       </c>
@@ -2259,10 +4040,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="46"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
@@ -2272,10 +4053,10 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="15" t="s">
         <v>159</v>
       </c>
@@ -2285,10 +4066,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -2326,10 +4107,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -2398,7 +4179,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>121</v>
@@ -2407,7 +4188,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -2418,7 +4199,7 @@
         <v>159</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>121</v>
@@ -2427,7 +4208,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -2438,7 +4219,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>123</v>
@@ -2617,10 +4398,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -2638,7 +4419,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>121</v>
@@ -2674,7 +4455,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>121</v>
@@ -2695,7 +4476,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>121</v>
@@ -2708,15 +4489,15 @@
       </c>
       <c r="G29" s="17"/>
     </row>
-    <row r="30" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>121</v>
@@ -2769,7 +4550,7 @@
       </c>
       <c r="G32" s="17"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>24</v>
       </c>
@@ -2787,7 +4568,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -2805,7 +4586,7 @@
       </c>
       <c r="G34" s="17"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>26</v>
       </c>
@@ -2823,15 +4604,15 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>151</v>
@@ -2840,18 +4621,18 @@
         <v>8</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>28</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -2860,10 +4641,10 @@
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="97.2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>29</v>
       </c>
@@ -2880,10 +4661,10 @@
         <v>1</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>30</v>
       </c>
@@ -2894,16 +4675,16 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>31</v>
       </c>
@@ -2921,7 +4702,7 @@
       </c>
       <c r="G40" s="17"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>32</v>
       </c>
@@ -2939,7 +4720,7 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>33</v>
       </c>
@@ -2957,7 +4738,7 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>34</v>
       </c>
@@ -2975,7 +4756,7 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>35</v>
       </c>
@@ -2996,15 +4777,15 @@
       </c>
       <c r="G44" s="17"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>36</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -3017,27 +4798,30 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" ht="243" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="E46" s="23">
+        <v>4</v>
+      </c>
+      <c r="G46" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="H46" s="32" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>38</v>
       </c>
@@ -3057,12 +4841,12 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="162" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>39</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>25</v>
@@ -3070,11 +4854,15 @@
       <c r="D48" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>165</v>
+      <c r="E48" s="23">
+        <v>3</v>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="H48" s="32" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3132,7 +4920,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3143,7 +4931,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>123</v>
@@ -3152,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3172,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3192,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -3212,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -3260,7 +5048,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>34</v>
@@ -3272,7 +5060,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -3373,7 +5161,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>123</v>
@@ -3382,7 +5170,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3390,10 +5178,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -3462,10 +5250,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>129</v>
@@ -3474,7 +5262,7 @@
         <v>6</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
@@ -3485,7 +5273,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>122</v>
@@ -3495,489 +5283,501 @@
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="96">
         <v>62</v>
       </c>
-      <c r="B71" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D71" s="25" t="s">
+      <c r="B71" s="94" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" s="95" t="s">
+        <v>296</v>
+      </c>
+      <c r="D71" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="25">
+      <c r="E71" s="96">
         <v>1</v>
       </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H71" s="48"/>
+      <c r="F71" s="95"/>
+      <c r="G71" s="94" t="s">
+        <v>351</v>
+      </c>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="23">
+      <c r="A72" s="96">
         <v>63</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="94" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="94" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="96">
+        <v>1</v>
+      </c>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="96">
+        <v>64</v>
+      </c>
+      <c r="B73" s="94" t="s">
+        <v>281</v>
+      </c>
+      <c r="C73" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="C72" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D72" s="23" t="s">
+      <c r="D73" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="23">
+      <c r="E73" s="96">
+        <v>3</v>
+      </c>
+      <c r="F73" s="94"/>
+      <c r="G73" s="94" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="96">
+        <v>65</v>
+      </c>
+      <c r="B74" s="94" t="s">
+        <v>283</v>
+      </c>
+      <c r="C74" s="94" t="s">
+        <v>284</v>
+      </c>
+      <c r="D74" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E74" s="96">
         <v>1</v>
       </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="23">
-        <v>64</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="D73" s="23" t="s">
+      <c r="F74" s="94"/>
+      <c r="G74" s="94" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="96">
+        <v>66</v>
+      </c>
+      <c r="B75" s="94" t="s">
+        <v>285</v>
+      </c>
+      <c r="C75" s="94" t="s">
+        <v>286</v>
+      </c>
+      <c r="D75" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E75" s="96">
+        <v>3</v>
+      </c>
+      <c r="F75" s="94"/>
+      <c r="G75" s="94"/>
+    </row>
+    <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="96">
+        <v>67</v>
+      </c>
+      <c r="B76" s="94" t="s">
+        <v>287</v>
+      </c>
+      <c r="C76" s="94" t="s">
+        <v>288</v>
+      </c>
+      <c r="D76" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E76" s="96">
+        <v>5</v>
+      </c>
+      <c r="F76" s="94">
+        <v>2</v>
+      </c>
+      <c r="G76" s="94"/>
+    </row>
+    <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="96">
+        <v>68</v>
+      </c>
+      <c r="B77" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="94" t="s">
+        <v>290</v>
+      </c>
+      <c r="D77" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E77" s="96">
+        <v>3</v>
+      </c>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+    </row>
+    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="96">
+        <v>69</v>
+      </c>
+      <c r="B78" s="94" t="s">
+        <v>291</v>
+      </c>
+      <c r="C78" s="94" t="s">
+        <v>292</v>
+      </c>
+      <c r="D78" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="96">
+        <v>5</v>
+      </c>
+      <c r="F78" s="94">
+        <v>2</v>
+      </c>
+      <c r="G78" s="94"/>
+    </row>
+    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="96">
+        <v>70</v>
+      </c>
+      <c r="B79" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C79" s="94" t="s">
+        <v>294</v>
+      </c>
+      <c r="D79" s="96" t="s">
+        <v>122</v>
+      </c>
+      <c r="E79" s="96">
+        <v>3</v>
+      </c>
+      <c r="F79" s="94"/>
+      <c r="G79" s="94"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="96">
+        <v>71</v>
+      </c>
+      <c r="B80" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="95" t="s">
+        <v>349</v>
+      </c>
+      <c r="D80" s="96" t="s">
+        <v>216</v>
+      </c>
+      <c r="E80" s="96">
+        <v>200</v>
+      </c>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="96">
+        <v>72</v>
+      </c>
+      <c r="B81" s="94" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" s="94" t="s">
+        <v>35</v>
+      </c>
+      <c r="D81" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E81" s="96">
+        <v>3</v>
+      </c>
+      <c r="F81" s="96"/>
+      <c r="G81" s="95"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="96">
+        <v>73</v>
+      </c>
+      <c r="B82" s="94" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" s="94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="96">
+        <v>8</v>
+      </c>
+      <c r="F82" s="96"/>
+      <c r="G82" s="95"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="96">
+        <v>74</v>
+      </c>
+      <c r="B83" s="94" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E83" s="96">
+        <v>10</v>
+      </c>
+      <c r="F83" s="96"/>
+      <c r="G83" s="95"/>
+    </row>
+    <row r="84" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="96">
+        <v>75</v>
+      </c>
+      <c r="B84" s="94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C84" s="94" t="s">
+        <v>139</v>
+      </c>
+      <c r="D84" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="96">
+        <v>1</v>
+      </c>
+      <c r="F84" s="96"/>
+      <c r="G84" s="94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="96">
+        <v>76</v>
+      </c>
+      <c r="B85" s="94" t="s">
+        <v>126</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="96" t="s">
+        <v>121</v>
+      </c>
+      <c r="E85" s="96">
+        <v>1</v>
+      </c>
+      <c r="F85" s="96"/>
+      <c r="G85" s="94" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="96">
+        <v>77</v>
+      </c>
+      <c r="B86" s="94" t="s">
+        <v>180</v>
+      </c>
+      <c r="C86" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" s="96">
+        <v>8</v>
+      </c>
+      <c r="F86" s="96"/>
+      <c r="G86" s="95" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="96">
+        <v>78</v>
+      </c>
+      <c r="B87" s="94" t="s">
+        <v>182</v>
+      </c>
+      <c r="C87" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="D87" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E87" s="96">
+        <v>4</v>
+      </c>
+      <c r="F87" s="96"/>
+      <c r="G87" s="95"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="96">
+        <v>79</v>
+      </c>
+      <c r="B88" s="94" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E88" s="96">
+        <v>6</v>
+      </c>
+      <c r="F88" s="96"/>
+      <c r="G88" s="95"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="96">
+        <v>80</v>
+      </c>
+      <c r="B89" s="94" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="95" t="s">
+        <v>186</v>
+      </c>
+      <c r="D89" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="23">
-        <v>3</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="23">
-        <v>65</v>
-      </c>
-      <c r="B74" s="22" t="s">
-        <v>285</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>286</v>
-      </c>
-      <c r="D74" s="23" t="s">
+      <c r="E89" s="96">
+        <v>8</v>
+      </c>
+      <c r="F89" s="96"/>
+      <c r="G89" s="95"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="96">
+        <v>81</v>
+      </c>
+      <c r="B90" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="C90" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="96" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90" s="96">
+        <v>8</v>
+      </c>
+      <c r="F90" s="96"/>
+      <c r="G90" s="95"/>
+    </row>
+    <row r="91" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="96">
+        <v>82</v>
+      </c>
+      <c r="B91" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91" s="94" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="96" t="s">
+        <v>123</v>
+      </c>
+      <c r="E91" s="96">
+        <v>1</v>
+      </c>
+      <c r="F91" s="96"/>
+      <c r="G91" s="94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="96">
+        <v>83</v>
+      </c>
+      <c r="B92" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C92" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E92" s="96">
+        <v>4</v>
+      </c>
+      <c r="F92" s="96"/>
+      <c r="G92" s="94"/>
+    </row>
+    <row r="93" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="96">
+        <v>84</v>
+      </c>
+      <c r="B93" s="94" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="94" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="96">
         <v>1</v>
       </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="23">
-        <v>66</v>
-      </c>
-      <c r="B75" s="22" t="s">
-        <v>287</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>288</v>
-      </c>
-      <c r="D75" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E75" s="23">
-        <v>3</v>
-      </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-    </row>
-    <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="23">
-        <v>67</v>
-      </c>
-      <c r="B76" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E76" s="23">
-        <v>5</v>
-      </c>
-      <c r="F76" s="22">
-        <v>2</v>
-      </c>
-      <c r="G76" s="22"/>
-    </row>
-    <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="23">
-        <v>68</v>
-      </c>
-      <c r="B77" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="C77" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="D77" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E77" s="23">
-        <v>3</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-    </row>
-    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="23">
-        <v>69</v>
-      </c>
-      <c r="B78" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="C78" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E78" s="23">
-        <v>5</v>
-      </c>
-      <c r="F78" s="22">
-        <v>2</v>
-      </c>
-      <c r="G78" s="22"/>
-    </row>
-    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
-        <v>70</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>296</v>
-      </c>
-      <c r="D79" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="E79" s="23">
-        <v>3</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <v>71</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C80" s="17" t="s">
-        <v>351</v>
-      </c>
-      <c r="D80" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="25">
-        <v>200</v>
-      </c>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <v>72</v>
-      </c>
-      <c r="B81" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E81" s="4">
-        <v>3</v>
-      </c>
-      <c r="G81" s="17"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>73</v>
-      </c>
-      <c r="B82" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E82" s="4">
-        <v>8</v>
-      </c>
-      <c r="G82" s="17"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>74</v>
-      </c>
-      <c r="B83" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E83" s="4">
-        <v>10</v>
-      </c>
-      <c r="G83" s="17"/>
-    </row>
-    <row r="84" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>75</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="4">
+      <c r="F93" s="96"/>
+      <c r="G93" s="94" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="96">
+        <v>85</v>
+      </c>
+      <c r="B94" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="94" t="s">
+        <v>252</v>
+      </c>
+      <c r="D94" s="96" t="s">
+        <v>129</v>
+      </c>
+      <c r="E94" s="96">
         <v>1</v>
       </c>
-      <c r="G84" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>76</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E85" s="4">
-        <v>1</v>
-      </c>
-      <c r="G85" s="15" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
-        <v>77</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="E86" s="4">
-        <v>8</v>
-      </c>
-      <c r="G86" s="17" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
-        <v>78</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>183</v>
-      </c>
-      <c r="C87" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="4">
-        <v>4</v>
-      </c>
-      <c r="G87" s="17"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
-        <v>79</v>
-      </c>
-      <c r="B88" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="4">
-        <v>6</v>
-      </c>
-      <c r="G88" s="17"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
-        <v>80</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="C89" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E89" s="4">
-        <v>8</v>
-      </c>
-      <c r="G89" s="17"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
-        <v>81</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="D90" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E90" s="4">
-        <v>8</v>
-      </c>
-      <c r="G90" s="17"/>
-    </row>
-    <row r="91" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
-        <v>82</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E91" s="4">
-        <v>1</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
-        <v>83</v>
-      </c>
-      <c r="B92" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E92" s="4">
-        <v>4</v>
-      </c>
-      <c r="G92" s="15"/>
-    </row>
-    <row r="93" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
-        <v>84</v>
-      </c>
-      <c r="B93" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="C93" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="D93" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E93" s="27">
-        <v>1</v>
-      </c>
-      <c r="F93" s="27"/>
-      <c r="G93" s="26" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
-        <v>85</v>
-      </c>
-      <c r="B94" s="26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C94" s="26" t="s">
-        <v>254</v>
-      </c>
-      <c r="D94" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="E94" s="27">
-        <v>1</v>
-      </c>
-      <c r="F94" s="27"/>
-      <c r="G94" s="26" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" ht="226.8" x14ac:dyDescent="0.3">
+      <c r="F94" s="96"/>
+      <c r="G94" s="94" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>86</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>129</v>
@@ -3987,7 +5787,7 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -3995,10 +5795,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>129</v>
@@ -4008,7 +5808,7 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -4016,10 +5816,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>129</v>
@@ -4029,7 +5829,7 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -4037,10 +5837,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>129</v>
@@ -4050,7 +5850,7 @@
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -4058,10 +5858,10 @@
         <v>90</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>122</v>
@@ -4077,10 +5877,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>122</v>
@@ -4091,15 +5891,15 @@
       <c r="F100" s="27"/>
       <c r="G100" s="26"/>
     </row>
-    <row r="101" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>92</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>151</v>
@@ -4109,7 +5909,7 @@
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="26" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4117,10 +5917,10 @@
         <v>93</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>122</v>
@@ -4130,7 +5930,7 @@
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="26" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4138,10 +5938,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>122</v>
@@ -4151,7 +5951,7 @@
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -4253,7 +6053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -4285,7 +6085,7 @@
         <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>163</v>
@@ -4296,10 +6096,10 @@
         <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -4312,13 +6112,13 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -4334,90 +6134,90 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4428,7 +6228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4449,370 +6249,1790 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>300</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>302</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="F2" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="F4" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="36"/>
       <c r="F5" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="36"/>
       <c r="F6" s="39" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="36"/>
       <c r="F7" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H7" s="41">
         <v>1</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
       <c r="F8" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H8" s="41">
         <v>2</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>315</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>316</v>
-      </c>
       <c r="F9" s="39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H9" s="41">
         <v>3</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="F10" s="39" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H10" s="41">
         <v>4</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F11" s="41">
         <v>905</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H11" s="41">
         <v>5</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F12" s="41">
         <v>906</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H12" s="41">
         <v>6</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F13" s="41">
         <v>907</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H13" s="41">
         <v>7</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F14" s="41">
         <v>908</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H14" s="41">
         <v>8</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F15" s="41">
         <v>909</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H15" s="41">
         <v>9</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CD61F3-6FA5-41C4-904A-95B9826F64BA}">
+  <dimension ref="A1:S44"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="43"/>
+    <col min="4" max="4" width="13.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" style="43" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="71.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.21875" style="45" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="43" customWidth="1"/>
+    <col min="11" max="11" width="71.44140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.77734375" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="46.109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="132" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="15.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="93.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="43"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B1" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="44" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" s="44" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="L3" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q3" s="47" t="s">
+        <v>359</v>
+      </c>
+      <c r="R3" s="43" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>362</v>
+      </c>
+      <c r="D4" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>365</v>
+      </c>
+      <c r="G4" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>364</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="L4" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="M4" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="P4" s="55" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q4" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="56">
+        <v>0</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>375</v>
+      </c>
+      <c r="D5" s="58">
+        <v>2</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>375</v>
+      </c>
+      <c r="F5" s="58">
+        <v>0</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>376</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>375</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>379</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="N5" s="63">
+        <v>1</v>
+      </c>
+      <c r="O5" s="62" t="s">
+        <v>381</v>
+      </c>
+      <c r="P5" s="64">
+        <v>45122</v>
+      </c>
+      <c r="Q5" s="64"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="56">
+        <v>1</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" s="58">
+        <v>3</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="58">
+        <v>1</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>383</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>382</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>384</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="N6" s="65">
+        <v>2</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="66">
+        <v>2</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>388</v>
+      </c>
+      <c r="D7" s="58">
+        <v>13</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>391</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>393</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="65">
+        <v>3</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="66">
+        <v>3</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D8" s="58">
+        <v>5</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="G8" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H8" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I8" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>400</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="M8" s="60"/>
+      <c r="N8" s="65">
+        <v>4</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="66">
+        <v>4</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="D9" s="58">
+        <v>11</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="60"/>
+      <c r="N9" s="65">
+        <v>5</v>
+      </c>
+      <c r="O9" s="72" t="s">
+        <v>381</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="66">
+        <v>5</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>407</v>
+      </c>
+      <c r="D10" s="58">
+        <v>9</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K10" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="L10" s="73" t="s">
+        <v>411</v>
+      </c>
+      <c r="M10" s="60" t="s">
+        <v>409</v>
+      </c>
+      <c r="N10" s="65">
+        <v>6</v>
+      </c>
+      <c r="O10" s="62"/>
+    </row>
+    <row r="11" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="66">
+        <v>6</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>412</v>
+      </c>
+      <c r="D11" s="58">
+        <v>15</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="K11" s="73" t="s">
+        <v>415</v>
+      </c>
+      <c r="L11" s="73" t="s">
+        <v>416</v>
+      </c>
+      <c r="M11" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="N11" s="65">
+        <v>7</v>
+      </c>
+      <c r="O11" s="62"/>
+    </row>
+    <row r="12" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="66">
+        <v>7</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>418</v>
+      </c>
+      <c r="D12" s="58">
+        <v>14</v>
+      </c>
+      <c r="E12" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="F12" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G12" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H12" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I12" s="62"/>
+      <c r="K12" s="73" t="s">
+        <v>420</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>417</v>
+      </c>
+      <c r="N12" s="65">
+        <v>8</v>
+      </c>
+      <c r="O12" s="62"/>
+    </row>
+    <row r="13" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="66">
+        <v>8</v>
+      </c>
+      <c r="B13" s="67" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="58">
+        <v>16</v>
+      </c>
+      <c r="E13" s="68" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="69" t="s">
+        <v>424</v>
+      </c>
+      <c r="G13" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H13" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I13" s="62"/>
+      <c r="K13" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="M13" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="N13" s="75">
+        <v>9</v>
+      </c>
+      <c r="O13" s="72" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="66">
+        <v>9</v>
+      </c>
+      <c r="B14" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="D14" s="58">
+        <v>18</v>
+      </c>
+      <c r="E14" s="68" t="s">
+        <v>430</v>
+      </c>
+      <c r="F14" s="69" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I14" s="62"/>
+      <c r="K14" s="74" t="s">
+        <v>432</v>
+      </c>
+      <c r="L14" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="M14" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="N14" s="65">
+        <v>10</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="43" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>436</v>
+      </c>
+      <c r="D15" s="58">
+        <v>17</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F15" s="69" t="s">
+        <v>438</v>
+      </c>
+      <c r="G15" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I15" s="62"/>
+      <c r="K15" s="74" t="s">
+        <v>439</v>
+      </c>
+      <c r="L15" s="74" t="s">
+        <v>440</v>
+      </c>
+      <c r="M15" s="60" t="s">
+        <v>427</v>
+      </c>
+      <c r="N15" s="46">
+        <v>11</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="43" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>443</v>
+      </c>
+      <c r="D16" s="58">
+        <v>6</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="F16" s="69" t="s">
+        <v>445</v>
+      </c>
+      <c r="G16" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H16" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I16" s="62"/>
+      <c r="K16" s="62" t="s">
+        <v>446</v>
+      </c>
+      <c r="L16" s="62" t="s">
+        <v>447</v>
+      </c>
+      <c r="M16" s="60"/>
+      <c r="N16" s="46">
+        <v>12</v>
+      </c>
+      <c r="O16" s="62"/>
+      <c r="P16" s="43" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="56" t="s">
+        <v>449</v>
+      </c>
+      <c r="B17" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="D17" s="58">
+        <v>7</v>
+      </c>
+      <c r="E17" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="F17" s="69" t="s">
+        <v>452</v>
+      </c>
+      <c r="G17" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="H17" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="62"/>
+      <c r="K17" s="62" t="s">
+        <v>453</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>454</v>
+      </c>
+      <c r="M17" s="60"/>
+      <c r="N17" s="46">
+        <v>13</v>
+      </c>
+      <c r="P17" s="43" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="56" t="s">
+        <v>456</v>
+      </c>
+      <c r="B18" s="57" t="s">
+        <v>457</v>
+      </c>
+      <c r="D18" s="58">
+        <v>8</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>458</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>459</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>460</v>
+      </c>
+      <c r="H18" s="61" t="s">
+        <v>458</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K18" s="62" t="s">
+        <v>461</v>
+      </c>
+      <c r="L18" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="M18" s="60"/>
+      <c r="N18" s="46">
+        <v>14</v>
+      </c>
+      <c r="P18" s="43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="B19" s="67" t="s">
+        <v>465</v>
+      </c>
+      <c r="D19" s="58">
+        <v>10</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>466</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G19" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="H19" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="62" t="s">
+        <v>469</v>
+      </c>
+      <c r="L19" s="62" t="s">
+        <v>470</v>
+      </c>
+      <c r="M19" s="60"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="66" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" s="67" t="s">
+        <v>472</v>
+      </c>
+      <c r="D20" s="58">
+        <v>4</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>456</v>
+      </c>
+      <c r="G20" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>457</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>474</v>
+      </c>
+      <c r="L20" s="62" t="s">
+        <v>475</v>
+      </c>
+      <c r="M20" s="60"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="66" t="s">
+        <v>476</v>
+      </c>
+      <c r="B21" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" s="58">
+        <v>12</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>478</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>479</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="H21" s="61" t="s">
+        <v>478</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>481</v>
+      </c>
+      <c r="L21" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="M21" s="60"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="Q21" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="R21" s="43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="58">
+        <v>1</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="F22" s="58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G22" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>450</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>488</v>
+      </c>
+      <c r="L22" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="M22" s="60" t="s">
+        <v>490</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="P22" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="Q22" s="77">
+        <v>45122</v>
+      </c>
+      <c r="R22" s="77">
+        <v>45120</v>
+      </c>
+      <c r="S22" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="66" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>494</v>
+      </c>
+      <c r="D23" s="62"/>
+      <c r="E23" s="78" t="s">
+        <v>388</v>
+      </c>
+      <c r="F23" s="60">
+        <v>2</v>
+      </c>
+      <c r="G23" s="60" t="s">
+        <v>495</v>
+      </c>
+      <c r="H23" s="79" t="s">
+        <v>388</v>
+      </c>
+      <c r="I23" s="62"/>
+      <c r="K23" s="73" t="s">
+        <v>496</v>
+      </c>
+      <c r="L23" s="73" t="s">
+        <v>497</v>
+      </c>
+      <c r="M23" s="60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="66" t="s">
+        <v>498</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>499</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="78" t="s">
+        <v>394</v>
+      </c>
+      <c r="F24" s="60">
+        <v>3</v>
+      </c>
+      <c r="G24" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="H24" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="I24" s="62"/>
+      <c r="K24" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="L24" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="M24" s="60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>477</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="78" t="s">
+        <v>402</v>
+      </c>
+      <c r="F25" s="60">
+        <v>4</v>
+      </c>
+      <c r="G25" s="60" t="s">
+        <v>504</v>
+      </c>
+      <c r="H25" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="I25" s="62"/>
+      <c r="K25" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="L25" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="M25" s="60" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>507</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="83" t="s">
+        <v>407</v>
+      </c>
+      <c r="F26" s="84">
+        <v>5</v>
+      </c>
+      <c r="G26" s="60" t="s">
+        <v>508</v>
+      </c>
+      <c r="H26" s="79" t="s">
+        <v>407</v>
+      </c>
+      <c r="I26" s="62"/>
+      <c r="K26" s="62" t="s">
+        <v>509</v>
+      </c>
+      <c r="L26" s="62" t="s">
+        <v>510</v>
+      </c>
+      <c r="M26" s="60"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="66" t="s">
+        <v>511</v>
+      </c>
+      <c r="B27" s="67" t="s">
+        <v>512</v>
+      </c>
+      <c r="D27" s="62"/>
+      <c r="E27" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="F27" s="60">
+        <v>6</v>
+      </c>
+      <c r="G27" s="60" t="s">
+        <v>513</v>
+      </c>
+      <c r="H27" s="79" t="s">
+        <v>412</v>
+      </c>
+      <c r="I27" s="62"/>
+      <c r="K27" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L27" s="62" t="s">
+        <v>515</v>
+      </c>
+      <c r="M27" s="60"/>
+    </row>
+    <row r="28" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="80" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>516</v>
+      </c>
+      <c r="D28" s="62"/>
+      <c r="E28" s="78" t="s">
+        <v>418</v>
+      </c>
+      <c r="F28" s="60">
+        <v>7</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>517</v>
+      </c>
+      <c r="H28" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="I28" s="62"/>
+      <c r="K28" s="62" t="s">
+        <v>514</v>
+      </c>
+      <c r="L28" s="62" t="s">
+        <v>518</v>
+      </c>
+      <c r="M28" s="60"/>
+    </row>
+    <row r="29" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="80" t="s">
+        <v>452</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>519</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="F29" s="60">
+        <v>8</v>
+      </c>
+      <c r="G29" s="60" t="s">
+        <v>520</v>
+      </c>
+      <c r="H29" s="79" t="s">
+        <v>422</v>
+      </c>
+      <c r="I29" s="62"/>
+      <c r="K29" s="85" t="s">
+        <v>521</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>522</v>
+      </c>
+      <c r="M29" s="86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="56" t="s">
+        <v>459</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="F30" s="60">
+        <v>9</v>
+      </c>
+      <c r="G30" s="60" t="s">
+        <v>524</v>
+      </c>
+      <c r="H30" s="79" t="s">
+        <v>429</v>
+      </c>
+      <c r="I30" s="62"/>
+      <c r="K30" s="85" t="s">
+        <v>525</v>
+      </c>
+      <c r="L30" s="85" t="s">
+        <v>526</v>
+      </c>
+      <c r="M30" s="86" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="66" t="s">
+        <v>527</v>
+      </c>
+      <c r="B31" s="67" t="s">
+        <v>528</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="F31" s="60" t="s">
+        <v>529</v>
+      </c>
+      <c r="G31" s="60" t="s">
+        <v>530</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>436</v>
+      </c>
+      <c r="I31" s="62"/>
+      <c r="K31" s="85" t="s">
+        <v>531</v>
+      </c>
+      <c r="L31" s="85" t="s">
+        <v>532</v>
+      </c>
+      <c r="M31" s="86"/>
+    </row>
+    <row r="32" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="78" t="s">
+        <v>443</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>534</v>
+      </c>
+      <c r="G32" s="60" t="s">
+        <v>535</v>
+      </c>
+      <c r="H32" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="I32" s="62"/>
+      <c r="K32" s="62" t="s">
+        <v>536</v>
+      </c>
+      <c r="L32" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="M32" s="60"/>
+    </row>
+    <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="56" t="s">
+        <v>467</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>466</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="78" t="s">
+        <v>465</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>464</v>
+      </c>
+      <c r="G33" s="60" t="s">
+        <v>538</v>
+      </c>
+      <c r="H33" s="79" t="s">
+        <v>465</v>
+      </c>
+      <c r="I33" s="62"/>
+      <c r="K33" s="62" t="s">
+        <v>539</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>540</v>
+      </c>
+      <c r="M33" s="60" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="80" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>542</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="78" t="s">
+        <v>472</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>471</v>
+      </c>
+      <c r="G34" s="60" t="s">
+        <v>543</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>472</v>
+      </c>
+      <c r="I34" s="62"/>
+    </row>
+    <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="66" t="s">
+        <v>544</v>
+      </c>
+      <c r="B35" s="67" t="s">
+        <v>545</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>476</v>
+      </c>
+      <c r="G35" s="60" t="s">
+        <v>546</v>
+      </c>
+      <c r="H35" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="I35" s="62"/>
+    </row>
+    <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="66" t="s">
+        <v>547</v>
+      </c>
+      <c r="B36" s="67" t="s">
+        <v>548</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="78" t="s">
+        <v>486</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>485</v>
+      </c>
+      <c r="G36" s="60" t="s">
+        <v>549</v>
+      </c>
+      <c r="H36" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="56" t="s">
+        <v>479</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="D37" s="87"/>
+      <c r="E37" s="78" t="s">
+        <v>494</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>493</v>
+      </c>
+      <c r="G37" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="H37" s="79" t="s">
+        <v>494</v>
+      </c>
+      <c r="I37" s="62"/>
+    </row>
+    <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="56" t="s">
+        <v>390</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>551</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="78" t="s">
+        <v>499</v>
+      </c>
+      <c r="F38" s="87" t="s">
+        <v>498</v>
+      </c>
+      <c r="G38" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="H38" s="79" t="s">
+        <v>499</v>
+      </c>
+      <c r="I38" s="62"/>
+    </row>
+    <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="80" t="s">
+        <v>553</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>554</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="78" t="s">
+        <v>477</v>
+      </c>
+      <c r="F39" s="87" t="s">
+        <v>503</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>555</v>
+      </c>
+      <c r="H39" s="79" t="s">
+        <v>477</v>
+      </c>
+      <c r="I39" s="62"/>
+    </row>
+    <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="56" t="s">
+        <v>427</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>556</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="78" t="s">
+        <v>512</v>
+      </c>
+      <c r="F40" s="87" t="s">
+        <v>511</v>
+      </c>
+      <c r="G40" s="60" t="s">
+        <v>557</v>
+      </c>
+      <c r="H40" s="79" t="s">
+        <v>512</v>
+      </c>
+      <c r="I40" s="62"/>
+    </row>
+    <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="B41" s="81" t="s">
+        <v>558</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="78" t="s">
+        <v>528</v>
+      </c>
+      <c r="F41" s="87" t="s">
+        <v>527</v>
+      </c>
+      <c r="G41" s="60" t="s">
+        <v>559</v>
+      </c>
+      <c r="H41" s="79" t="s">
+        <v>528</v>
+      </c>
+      <c r="I41" s="62"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="67" t="s">
+        <v>560</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="78" t="s">
+        <v>545</v>
+      </c>
+      <c r="F42" s="87" t="s">
+        <v>544</v>
+      </c>
+      <c r="G42" s="60" t="s">
+        <v>561</v>
+      </c>
+      <c r="H42" s="79" t="s">
+        <v>545</v>
+      </c>
+      <c r="I42" s="62"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="80" t="s">
+        <v>490</v>
+      </c>
+      <c r="B43" s="81" t="s">
+        <v>562</v>
+      </c>
+      <c r="D43" s="87"/>
+      <c r="E43" s="78" t="s">
+        <v>548</v>
+      </c>
+      <c r="F43" s="87" t="s">
+        <v>547</v>
+      </c>
+      <c r="G43" s="60" t="s">
+        <v>563</v>
+      </c>
+      <c r="H43" s="79" t="s">
+        <v>548</v>
+      </c>
+      <c r="I43" s="62"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D44" s="87"/>
+      <c r="E44" s="78" t="s">
+        <v>560</v>
+      </c>
+      <c r="F44" s="87" t="s">
+        <v>380</v>
+      </c>
+      <c r="G44" s="60" t="s">
+        <v>564</v>
+      </c>
+      <c r="H44" s="79" t="s">
+        <v>560</v>
+      </c>
+      <c r="I44" s="62"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDACE2F-F745-4C7C-B0FB-09AFF63D9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B0EB9-CCE4-4427-A56B-AE5BF898FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2791,7 +2791,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3070,13 +3070,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3951,7 +3945,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4811,8 +4805,8 @@
       <c r="D46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="23">
-        <v>4</v>
+      <c r="E46" s="94">
+        <v>5</v>
       </c>
       <c r="G46" s="22" t="s">
         <v>565</v>
@@ -5287,485 +5281,485 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="96">
+      <c r="A71" s="25">
         <v>62</v>
       </c>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C71" s="95" t="s">
+      <c r="C71" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E71" s="96">
+      <c r="E71" s="25">
         <v>1</v>
       </c>
-      <c r="F71" s="95"/>
-      <c r="G71" s="94" t="s">
+      <c r="F71" s="17"/>
+      <c r="G71" s="15" t="s">
         <v>351</v>
       </c>
       <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" s="32" customFormat="1" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="96">
+      <c r="A72" s="25">
         <v>63</v>
       </c>
-      <c r="B72" s="94" t="s">
+      <c r="B72" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C72" s="94" t="s">
+      <c r="C72" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="D72" s="96" t="s">
+      <c r="D72" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="96">
+      <c r="E72" s="25">
         <v>1</v>
       </c>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94" t="s">
+      <c r="F72" s="15"/>
+      <c r="G72" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
-      <c r="A73" s="96">
+      <c r="A73" s="25">
         <v>64</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C73" s="94" t="s">
+      <c r="C73" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="D73" s="96" t="s">
+      <c r="D73" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E73" s="96">
+      <c r="E73" s="25">
         <v>3</v>
       </c>
-      <c r="F73" s="94"/>
-      <c r="G73" s="94" t="s">
+      <c r="F73" s="15"/>
+      <c r="G73" s="15" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="96">
+      <c r="A74" s="25">
         <v>65</v>
       </c>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C74" s="94" t="s">
+      <c r="C74" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="D74" s="96" t="s">
+      <c r="D74" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E74" s="96">
+      <c r="E74" s="25">
         <v>1</v>
       </c>
-      <c r="F74" s="94"/>
-      <c r="G74" s="94" t="s">
+      <c r="F74" s="15"/>
+      <c r="G74" s="15" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="96">
+      <c r="A75" s="25">
         <v>66</v>
       </c>
-      <c r="B75" s="94" t="s">
+      <c r="B75" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="D75" s="96" t="s">
+      <c r="D75" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E75" s="96">
+      <c r="E75" s="25">
         <v>3</v>
       </c>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
     </row>
     <row r="76" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="96">
+      <c r="A76" s="25">
         <v>67</v>
       </c>
-      <c r="B76" s="94" t="s">
+      <c r="B76" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C76" s="94" t="s">
+      <c r="C76" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="D76" s="96" t="s">
+      <c r="D76" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E76" s="96">
+      <c r="E76" s="25">
         <v>5</v>
       </c>
-      <c r="F76" s="94">
+      <c r="F76" s="15">
         <v>2</v>
       </c>
-      <c r="G76" s="94"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="96">
+      <c r="A77" s="25">
         <v>68</v>
       </c>
-      <c r="B77" s="94" t="s">
+      <c r="B77" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="94" t="s">
+      <c r="C77" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="D77" s="96" t="s">
+      <c r="D77" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="96">
+      <c r="E77" s="25">
         <v>3</v>
       </c>
-      <c r="F77" s="94"/>
-      <c r="G77" s="94"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
     </row>
     <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="96">
+      <c r="A78" s="25">
         <v>69</v>
       </c>
-      <c r="B78" s="94" t="s">
+      <c r="B78" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C78" s="94" t="s">
+      <c r="C78" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E78" s="96">
+      <c r="E78" s="25">
         <v>5</v>
       </c>
-      <c r="F78" s="94">
+      <c r="F78" s="15">
         <v>2</v>
       </c>
-      <c r="G78" s="94"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="96">
+      <c r="A79" s="25">
         <v>70</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="D79" s="96" t="s">
+      <c r="D79" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="E79" s="96">
+      <c r="E79" s="25">
         <v>3</v>
       </c>
-      <c r="F79" s="94"/>
-      <c r="G79" s="94"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="96">
+      <c r="A80" s="25">
         <v>71</v>
       </c>
-      <c r="B80" s="94" t="s">
+      <c r="B80" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="95" t="s">
+      <c r="C80" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="D80" s="96" t="s">
+      <c r="D80" s="25" t="s">
         <v>216</v>
       </c>
-      <c r="E80" s="96">
+      <c r="E80" s="25">
         <v>200</v>
       </c>
-      <c r="F80" s="94"/>
-      <c r="G80" s="94" t="s">
+      <c r="F80" s="15"/>
+      <c r="G80" s="15" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="96">
+      <c r="A81" s="25">
         <v>72</v>
       </c>
-      <c r="B81" s="94" t="s">
+      <c r="B81" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D81" s="96" t="s">
+      <c r="D81" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E81" s="96">
+      <c r="E81" s="25">
         <v>3</v>
       </c>
-      <c r="F81" s="96"/>
-      <c r="G81" s="95"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="96">
+      <c r="A82" s="25">
         <v>73</v>
       </c>
-      <c r="B82" s="94" t="s">
+      <c r="B82" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="C82" s="94" t="s">
+      <c r="C82" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D82" s="96" t="s">
+      <c r="D82" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E82" s="96">
+      <c r="E82" s="25">
         <v>8</v>
       </c>
-      <c r="F82" s="96"/>
-      <c r="G82" s="95"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="17"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="96">
+      <c r="A83" s="25">
         <v>74</v>
       </c>
-      <c r="B83" s="94" t="s">
+      <c r="B83" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="96" t="s">
+      <c r="D83" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E83" s="96">
+      <c r="E83" s="25">
         <v>10</v>
       </c>
-      <c r="F83" s="96"/>
-      <c r="G83" s="95"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="96">
+      <c r="A84" s="25">
         <v>75</v>
       </c>
-      <c r="B84" s="94" t="s">
+      <c r="B84" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C84" s="94" t="s">
+      <c r="C84" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D84" s="96" t="s">
+      <c r="D84" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E84" s="96">
+      <c r="E84" s="25">
         <v>1</v>
       </c>
-      <c r="F84" s="96"/>
-      <c r="G84" s="94" t="s">
+      <c r="F84" s="25"/>
+      <c r="G84" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="96">
+      <c r="A85" s="25">
         <v>76</v>
       </c>
-      <c r="B85" s="94" t="s">
+      <c r="B85" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C85" s="94" t="s">
+      <c r="C85" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="D85" s="96" t="s">
+      <c r="D85" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="E85" s="96">
+      <c r="E85" s="25">
         <v>1</v>
       </c>
-      <c r="F85" s="96"/>
-      <c r="G85" s="94" t="s">
+      <c r="F85" s="25"/>
+      <c r="G85" s="15" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="96">
+      <c r="A86" s="25">
         <v>77</v>
       </c>
-      <c r="B86" s="94" t="s">
+      <c r="B86" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="95" t="s">
+      <c r="C86" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="D86" s="96" t="s">
+      <c r="D86" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E86" s="96">
+      <c r="E86" s="25">
         <v>8</v>
       </c>
-      <c r="F86" s="96"/>
-      <c r="G86" s="95" t="s">
+      <c r="F86" s="25"/>
+      <c r="G86" s="17" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="96">
+      <c r="A87" s="25">
         <v>78</v>
       </c>
-      <c r="B87" s="94" t="s">
+      <c r="B87" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="95" t="s">
+      <c r="C87" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D87" s="96" t="s">
+      <c r="D87" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E87" s="96">
+      <c r="E87" s="25">
         <v>4</v>
       </c>
-      <c r="F87" s="96"/>
-      <c r="G87" s="95"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="96">
+      <c r="A88" s="25">
         <v>79</v>
       </c>
-      <c r="B88" s="94" t="s">
+      <c r="B88" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="C88" s="94" t="s">
+      <c r="C88" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D88" s="96" t="s">
+      <c r="D88" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E88" s="96">
+      <c r="E88" s="25">
         <v>6</v>
       </c>
-      <c r="F88" s="96"/>
-      <c r="G88" s="95"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="17"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="96">
+      <c r="A89" s="25">
         <v>80</v>
       </c>
-      <c r="B89" s="94" t="s">
+      <c r="B89" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="C89" s="95" t="s">
+      <c r="C89" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D89" s="96" t="s">
+      <c r="D89" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E89" s="96">
+      <c r="E89" s="25">
         <v>8</v>
       </c>
-      <c r="F89" s="96"/>
-      <c r="G89" s="95"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="96">
+      <c r="A90" s="25">
         <v>81</v>
       </c>
-      <c r="B90" s="94" t="s">
+      <c r="B90" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C90" s="94" t="s">
+      <c r="C90" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="96" t="s">
+      <c r="D90" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="E90" s="96">
+      <c r="E90" s="25">
         <v>8</v>
       </c>
-      <c r="F90" s="96"/>
-      <c r="G90" s="95"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="17"/>
     </row>
     <row r="91" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="96">
+      <c r="A91" s="25">
         <v>82</v>
       </c>
-      <c r="B91" s="94" t="s">
+      <c r="B91" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="C91" s="94" t="s">
+      <c r="C91" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="D91" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="E91" s="96">
+      <c r="E91" s="25">
         <v>1</v>
       </c>
-      <c r="F91" s="96"/>
-      <c r="G91" s="94" t="s">
+      <c r="F91" s="25"/>
+      <c r="G91" s="15" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="96">
+      <c r="A92" s="25">
         <v>83</v>
       </c>
-      <c r="B92" s="94" t="s">
+      <c r="B92" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C92" s="94" t="s">
+      <c r="C92" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="96" t="s">
+      <c r="D92" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E92" s="96">
+      <c r="E92" s="25">
         <v>4</v>
       </c>
-      <c r="F92" s="96"/>
-      <c r="G92" s="94"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="96">
+      <c r="A93" s="25">
         <v>84</v>
       </c>
-      <c r="B93" s="94" t="s">
+      <c r="B93" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="C93" s="94" t="s">
+      <c r="C93" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="96" t="s">
+      <c r="D93" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E93" s="96">
+      <c r="E93" s="25">
         <v>1</v>
       </c>
-      <c r="F93" s="96"/>
-      <c r="G93" s="94" t="s">
+      <c r="F93" s="25"/>
+      <c r="G93" s="15" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="96">
+      <c r="A94" s="25">
         <v>85</v>
       </c>
-      <c r="B94" s="94" t="s">
+      <c r="B94" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C94" s="94" t="s">
+      <c r="C94" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="D94" s="96" t="s">
+      <c r="D94" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="E94" s="96">
+      <c r="E94" s="25">
         <v>1</v>
       </c>
-      <c r="F94" s="96"/>
-      <c r="G94" s="94" t="s">
+      <c r="F94" s="25"/>
+      <c r="G94" s="15" t="s">
         <v>257</v>
       </c>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L2-業務作業/FacMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350B0EB9-CCE4-4427-A56B-AE5BF898FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E648090-5B44-4029-ADEE-D614DF10531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="567">
   <si>
     <t>備註說明</t>
   </si>
@@ -606,14 +606,6 @@
   </si>
   <si>
     <t>DECIMALD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2358,6 +2350,9 @@
   <si>
     <t>2023-08-21_規定管制代碼調整</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -3052,6 +3047,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3069,9 +3067,6 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3944,8 +3939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -3961,23 +3956,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
+      <c r="A2" s="89"/>
+      <c r="B2" s="90"/>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
@@ -3989,10 +3984,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="93"/>
       <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
@@ -4004,10 +3999,10 @@
       <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="90" t="s">
+      <c r="A4" s="91" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="91"/>
+      <c r="B4" s="92"/>
       <c r="C4" s="13" t="s">
         <v>148</v>
       </c>
@@ -4019,10 +4014,10 @@
       <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="13" t="s">
         <v>149</v>
       </c>
@@ -4034,10 +4029,10 @@
       <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="92"/>
+      <c r="B6" s="93"/>
       <c r="C6" s="15" t="s">
         <v>75</v>
       </c>
@@ -4047,12 +4042,12 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="93"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="14"/>
@@ -4060,10 +4055,10 @@
       <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
+      <c r="A8" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="13"/>
       <c r="D8" s="6"/>
       <c r="E8" s="7"/>
@@ -4101,10 +4096,10 @@
         <v>73</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E10" s="4">
         <v>7</v>
@@ -4134,7 +4129,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>15</v>
@@ -4152,7 +4147,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>55</v>
@@ -4173,7 +4168,7 @@
         <v>75</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>121</v>
@@ -4182,7 +4177,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -4190,10 +4185,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>121</v>
@@ -4202,7 +4197,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -4213,7 +4208,7 @@
         <v>76</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>123</v>
@@ -4392,10 +4387,10 @@
         <v>16</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>121</v>
@@ -4413,7 +4408,7 @@
         <v>84</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>121</v>
@@ -4449,7 +4444,7 @@
         <v>86</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>121</v>
@@ -4470,7 +4465,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>121</v>
@@ -4488,10 +4483,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>121</v>
@@ -4603,10 +4598,10 @@
         <v>27</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>151</v>
@@ -4615,7 +4610,7 @@
         <v>8</v>
       </c>
       <c r="G36" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4623,10 +4618,10 @@
         <v>28</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>123</v>
@@ -4635,7 +4630,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="97.2" x14ac:dyDescent="0.3">
@@ -4655,7 +4650,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4669,13 +4664,13 @@
         <v>47</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E39" s="4">
         <v>1</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -4776,10 +4771,10 @@
         <v>36</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>121</v>
@@ -4797,22 +4792,22 @@
         <v>37</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E46" s="94">
+      <c r="E46" s="88">
         <v>5</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="H46" s="32" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="48.6" x14ac:dyDescent="0.3">
@@ -4840,7 +4835,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>25</v>
@@ -4853,10 +4848,10 @@
       </c>
       <c r="F48" s="23"/>
       <c r="G48" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="H48" s="32" t="s">
         <v>565</v>
-      </c>
-      <c r="H48" s="32" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -4914,7 +4909,7 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -4925,7 +4920,7 @@
         <v>99</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>123</v>
@@ -4934,7 +4929,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4954,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4974,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -4994,7 +4989,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="64.8" x14ac:dyDescent="0.3">
@@ -5042,7 +5037,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>34</v>
@@ -5054,7 +5049,7 @@
         <v>2</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -5155,7 +5150,7 @@
         <v>106</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>123</v>
@@ -5164,7 +5159,7 @@
         <v>6</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -5172,10 +5167,10 @@
         <v>56</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>209</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>123</v>
@@ -5244,10 +5239,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>129</v>
@@ -5256,7 +5251,7 @@
         <v>6</v>
       </c>
       <c r="G69" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="210.6" x14ac:dyDescent="0.3">
@@ -5267,7 +5262,7 @@
         <v>111</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>122</v>
@@ -5277,7 +5272,7 @@
       </c>
       <c r="F70" s="17"/>
       <c r="G70" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
@@ -5285,10 +5280,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>129</v>
@@ -5298,7 +5293,7 @@
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="15" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H71" s="42"/>
     </row>
@@ -5307,10 +5302,10 @@
         <v>63</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>129</v>
@@ -5320,7 +5315,7 @@
       </c>
       <c r="F72" s="15"/>
       <c r="G72" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="73" spans="1:8" s="32" customFormat="1" ht="97.2" x14ac:dyDescent="0.3">
@@ -5328,10 +5323,10 @@
         <v>64</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>129</v>
@@ -5341,7 +5336,7 @@
       </c>
       <c r="F73" s="15"/>
       <c r="G73" s="15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="32" customFormat="1" ht="48.6" x14ac:dyDescent="0.3">
@@ -5349,10 +5344,10 @@
         <v>65</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>129</v>
@@ -5362,7 +5357,7 @@
       </c>
       <c r="F74" s="15"/>
       <c r="G74" s="15" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.3">
@@ -5370,10 +5365,10 @@
         <v>66</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>122</v>
@@ -5389,10 +5384,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>122</v>
@@ -5410,10 +5405,10 @@
         <v>68</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>122</v>
@@ -5429,10 +5424,10 @@
         <v>69</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>122</v>
@@ -5450,10 +5445,10 @@
         <v>70</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>122</v>
@@ -5469,20 +5464,20 @@
         <v>71</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E80" s="25">
         <v>200</v>
       </c>
       <c r="F80" s="15"/>
       <c r="G80" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -5547,7 +5542,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>139</v>
@@ -5560,7 +5555,7 @@
       </c>
       <c r="F84" s="25"/>
       <c r="G84" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -5581,7 +5576,7 @@
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="15" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -5589,10 +5584,10 @@
         <v>77</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="25" t="s">
         <v>151</v>
@@ -5602,7 +5597,7 @@
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -5610,10 +5605,10 @@
         <v>78</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D87" s="25" t="s">
         <v>123</v>
@@ -5629,10 +5624,10 @@
         <v>79</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D88" s="25" t="s">
         <v>123</v>
@@ -5648,10 +5643,10 @@
         <v>80</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>129</v>
@@ -5686,10 +5681,10 @@
         <v>82</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>123</v>
@@ -5699,7 +5694,7 @@
       </c>
       <c r="F91" s="25"/>
       <c r="G91" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -5707,10 +5702,10 @@
         <v>83</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>129</v>
@@ -5726,10 +5721,10 @@
         <v>84</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>129</v>
@@ -5739,7 +5734,7 @@
       </c>
       <c r="F93" s="25"/>
       <c r="G93" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -5747,10 +5742,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>129</v>
@@ -5760,7 +5755,7 @@
       </c>
       <c r="F94" s="25"/>
       <c r="G94" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="210.6" x14ac:dyDescent="0.3">
@@ -5768,10 +5763,10 @@
         <v>86</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C95" s="26" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D95" s="27" t="s">
         <v>129</v>
@@ -5781,7 +5776,7 @@
       </c>
       <c r="F95" s="27"/>
       <c r="G95" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -5789,10 +5784,10 @@
         <v>87</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C96" s="26" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D96" s="27" t="s">
         <v>129</v>
@@ -5802,7 +5797,7 @@
       </c>
       <c r="F96" s="27"/>
       <c r="G96" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -5810,10 +5805,10 @@
         <v>88</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C97" s="26" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D97" s="27" t="s">
         <v>129</v>
@@ -5823,7 +5818,7 @@
       </c>
       <c r="F97" s="27"/>
       <c r="G97" s="26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -5831,10 +5826,10 @@
         <v>89</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C98" s="26" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D98" s="27" t="s">
         <v>129</v>
@@ -5844,7 +5839,7 @@
       </c>
       <c r="F98" s="27"/>
       <c r="G98" s="26" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
@@ -5852,10 +5847,10 @@
         <v>90</v>
       </c>
       <c r="B99" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C99" s="26" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D99" s="4" t="s">
         <v>122</v>
@@ -5871,10 +5866,10 @@
         <v>91</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C100" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D100" s="4" t="s">
         <v>122</v>
@@ -5890,10 +5885,10 @@
         <v>92</v>
       </c>
       <c r="B101" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C101" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D101" s="4" t="s">
         <v>151</v>
@@ -5903,7 +5898,7 @@
       </c>
       <c r="F101" s="27"/>
       <c r="G101" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -5911,10 +5906,10 @@
         <v>93</v>
       </c>
       <c r="B102" s="30" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C102" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>122</v>
@@ -5924,7 +5919,7 @@
       </c>
       <c r="F102" s="27"/>
       <c r="G102" s="26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="32.4" x14ac:dyDescent="0.3">
@@ -5932,10 +5927,10 @@
         <v>94</v>
       </c>
       <c r="B103" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C103" s="29" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>122</v>
@@ -5945,7 +5940,7 @@
       </c>
       <c r="F103" s="27"/>
       <c r="G103" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
@@ -5959,10 +5954,7 @@
         <v>69</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E104" s="4">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="G104" s="17"/>
     </row>
@@ -5998,10 +5990,7 @@
         <v>70</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E106" s="4">
-        <v>8</v>
+        <v>566</v>
       </c>
       <c r="G106" s="17"/>
     </row>
@@ -6079,10 +6068,10 @@
         <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -6090,128 +6079,128 @@
         <v>143</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -6243,366 +6232,366 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H1" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>298</v>
-      </c>
-      <c r="I1" s="34" t="s">
-        <v>300</v>
       </c>
       <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="33"/>
       <c r="F2" s="39" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="34" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="34" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
       <c r="F4" s="39" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="34" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="36"/>
       <c r="F5" s="39" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="36"/>
       <c r="F6" s="39" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="36"/>
       <c r="F7" s="39" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H7" s="41">
         <v>1</v>
       </c>
       <c r="I7" s="33" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="36"/>
       <c r="F8" s="39" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H8" s="41">
         <v>2</v>
       </c>
       <c r="I8" s="33" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
+        <v>309</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="D9" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C9" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>314</v>
-      </c>
       <c r="F9" s="39" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G9" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H9" s="41">
         <v>3</v>
       </c>
       <c r="I9" s="33" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.3">
       <c r="A10" s="38" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="36"/>
       <c r="D10" s="36"/>
       <c r="F10" s="39" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H10" s="41">
         <v>4</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F11" s="41">
         <v>905</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H11" s="41">
         <v>5</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F12" s="41">
         <v>906</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H12" s="41">
         <v>6</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F13" s="41">
         <v>907</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H13" s="41">
         <v>7</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F14" s="41">
         <v>908</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H14" s="41">
         <v>8</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F15" s="41">
         <v>909</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H15" s="41">
         <v>9</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="32.4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -6644,88 +6633,88 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G1" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K1" s="44" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B2" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G3" s="46" t="s">
+        <v>353</v>
+      </c>
+      <c r="K3" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="L3" s="43" t="s">
         <v>355</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="P3" s="47" t="s">
         <v>356</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="Q3" s="47" t="s">
         <v>357</v>
       </c>
-      <c r="P3" s="47" t="s">
+      <c r="R3" s="43" t="s">
         <v>358</v>
-      </c>
-      <c r="Q3" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="E4" s="50" t="s">
         <v>362</v>
       </c>
-      <c r="D4" s="50" t="s">
+      <c r="F4" s="51" t="s">
         <v>363</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="H4" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="I4" s="52" t="s">
         <v>365</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="K4" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="H4" s="53" t="s">
-        <v>364</v>
-      </c>
-      <c r="I4" s="52" t="s">
+      <c r="L4" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="M4" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="N4" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="L4" s="54" t="s">
+      <c r="O4" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="M4" s="54" t="s">
-        <v>361</v>
-      </c>
-      <c r="N4" s="54" t="s">
+      <c r="P4" s="55" t="s">
         <v>370</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="Q4" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="R4" s="47" t="s">
         <v>372</v>
-      </c>
-      <c r="Q4" s="55" t="s">
-        <v>373</v>
-      </c>
-      <c r="R4" s="47" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6733,40 +6722,40 @@
         <v>0</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D5" s="58">
         <v>2</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F5" s="58">
         <v>0</v>
       </c>
       <c r="G5" s="60" t="s">
+        <v>374</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K5" s="62" t="s">
         <v>376</v>
       </c>
-      <c r="H5" s="61" t="s">
-        <v>375</v>
-      </c>
-      <c r="I5" s="62" t="s">
+      <c r="L5" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="M5" s="60" t="s">
         <v>378</v>
-      </c>
-      <c r="L5" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>380</v>
       </c>
       <c r="N5" s="63">
         <v>1</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P5" s="64">
         <v>45122</v>
@@ -6778,45 +6767,45 @@
         <v>1</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D6" s="58">
         <v>3</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F6" s="58">
         <v>1</v>
       </c>
       <c r="G6" s="60" t="s">
+        <v>381</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>380</v>
+      </c>
+      <c r="I6" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="L6" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="H6" s="61" t="s">
-        <v>382</v>
-      </c>
-      <c r="I6" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K6" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="L6" s="62" t="s">
-        <v>385</v>
-      </c>
       <c r="M6" s="60" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N6" s="65">
         <v>2</v>
       </c>
       <c r="O6" s="62" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P6" s="62"/>
       <c r="Q6" s="62"/>
       <c r="R6" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6824,31 +6813,31 @@
         <v>2</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D7" s="58">
         <v>13</v>
       </c>
       <c r="E7" s="59" t="s">
+        <v>387</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G7" s="60" t="s">
         <v>389</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="H7" s="61" t="s">
+        <v>387</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K7" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="60" t="s">
+      <c r="L7" s="62" t="s">
         <v>391</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="L7" s="62" t="s">
-        <v>393</v>
       </c>
       <c r="M7" s="60"/>
       <c r="N7" s="65">
@@ -6858,7 +6847,7 @@
       <c r="P7" s="62"/>
       <c r="Q7" s="62"/>
       <c r="R7" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6866,31 +6855,31 @@
         <v>3</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D8" s="58">
         <v>5</v>
       </c>
       <c r="E8" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>394</v>
+      </c>
+      <c r="G8" s="70" t="s">
         <v>395</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="H8" s="71" t="s">
         <v>396</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="I8" s="62" t="s">
         <v>397</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="K8" s="62" t="s">
         <v>398</v>
       </c>
-      <c r="I8" s="62" t="s">
+      <c r="L8" s="62" t="s">
         <v>399</v>
-      </c>
-      <c r="K8" s="62" t="s">
-        <v>400</v>
-      </c>
-      <c r="L8" s="62" t="s">
-        <v>401</v>
       </c>
       <c r="M8" s="60"/>
       <c r="N8" s="65">
@@ -6900,7 +6889,7 @@
       <c r="P8" s="62"/>
       <c r="Q8" s="62"/>
       <c r="R8" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6908,43 +6897,43 @@
         <v>4</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D9" s="58">
         <v>11</v>
       </c>
       <c r="E9" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="F9" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="G9" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="H9" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="I9" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="K9" s="62" t="s">
         <v>403</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="L9" s="62" t="s">
         <v>404</v>
-      </c>
-      <c r="G9" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="H9" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="I9" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="K9" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="L9" s="62" t="s">
-        <v>406</v>
       </c>
       <c r="M9" s="60"/>
       <c r="N9" s="65">
         <v>5</v>
       </c>
       <c r="O9" s="72" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P9" s="62"/>
       <c r="Q9" s="62"/>
       <c r="R9" s="43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -6952,34 +6941,34 @@
         <v>5</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D10" s="58">
         <v>9</v>
       </c>
       <c r="E10" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="H10" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="K10" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="F10" s="69" t="s">
+      <c r="L10" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="G10" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="I10" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="K10" s="73" t="s">
-        <v>410</v>
-      </c>
-      <c r="L10" s="73" t="s">
-        <v>411</v>
-      </c>
       <c r="M10" s="60" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="N10" s="65">
         <v>6</v>
@@ -6991,34 +6980,34 @@
         <v>6</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D11" s="58">
         <v>15</v>
       </c>
       <c r="E11" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>412</v>
+      </c>
+      <c r="G11" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="H11" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="I11" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="K11" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="L11" s="73" t="s">
         <v>414</v>
       </c>
-      <c r="G11" s="70" t="s">
-        <v>397</v>
-      </c>
-      <c r="H11" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>399</v>
-      </c>
-      <c r="K11" s="73" t="s">
+      <c r="M11" s="60" t="s">
         <v>415</v>
-      </c>
-      <c r="L11" s="73" t="s">
-        <v>416</v>
-      </c>
-      <c r="M11" s="60" t="s">
-        <v>417</v>
       </c>
       <c r="N11" s="65">
         <v>7</v>
@@ -7030,32 +7019,32 @@
         <v>7</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D12" s="58">
         <v>14</v>
       </c>
       <c r="E12" s="68" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F12" s="69" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G12" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H12" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I12" s="62"/>
       <c r="K12" s="73" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L12" s="73" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M12" s="60" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="N12" s="65">
         <v>8</v>
@@ -7067,38 +7056,38 @@
         <v>8</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D13" s="58">
         <v>16</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F13" s="69" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H13" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I13" s="62"/>
       <c r="K13" s="74" t="s">
+        <v>423</v>
+      </c>
+      <c r="L13" s="74" t="s">
+        <v>424</v>
+      </c>
+      <c r="M13" s="60" t="s">
         <v>425</v>
-      </c>
-      <c r="L13" s="74" t="s">
-        <v>426</v>
-      </c>
-      <c r="M13" s="60" t="s">
-        <v>427</v>
       </c>
       <c r="N13" s="75">
         <v>9</v>
       </c>
       <c r="O13" s="72" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7106,109 +7095,109 @@
         <v>9</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D14" s="58">
         <v>18</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F14" s="69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G14" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H14" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I14" s="62"/>
       <c r="K14" s="74" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="L14" s="74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M14" s="60" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N14" s="65">
         <v>10</v>
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="43" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="66" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D15" s="58">
         <v>17</v>
       </c>
       <c r="E15" s="68" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F15" s="69" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G15" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H15" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I15" s="62"/>
       <c r="K15" s="74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L15" s="74" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M15" s="60" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="N15" s="46">
         <v>11</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="66" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D16" s="58">
         <v>6</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G16" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H16" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I16" s="62"/>
       <c r="K16" s="62" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L16" s="62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M16" s="60"/>
       <c r="N16" s="46">
@@ -7216,115 +7205,115 @@
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="43" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D17" s="58">
         <v>7</v>
       </c>
       <c r="E17" s="68" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F17" s="69" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G17" s="70" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H17" s="71" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I17" s="62"/>
       <c r="K17" s="62" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="L17" s="62" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M17" s="60"/>
       <c r="N17" s="46">
         <v>13</v>
       </c>
       <c r="P17" s="43" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="56" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D18" s="58">
         <v>8</v>
       </c>
       <c r="E18" s="59" t="s">
+        <v>456</v>
+      </c>
+      <c r="F18" s="58" t="s">
+        <v>457</v>
+      </c>
+      <c r="G18" s="60" t="s">
         <v>458</v>
       </c>
-      <c r="F18" s="58" t="s">
+      <c r="H18" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="I18" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K18" s="62" t="s">
         <v>459</v>
       </c>
-      <c r="G18" s="60" t="s">
+      <c r="L18" s="62" t="s">
         <v>460</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>458</v>
-      </c>
-      <c r="I18" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K18" s="62" t="s">
-        <v>461</v>
-      </c>
-      <c r="L18" s="62" t="s">
-        <v>462</v>
       </c>
       <c r="M18" s="60"/>
       <c r="N18" s="46">
         <v>14</v>
       </c>
       <c r="P18" s="43" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="66" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B19" s="67" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D19" s="58">
         <v>10</v>
       </c>
       <c r="E19" s="59" t="s">
+        <v>464</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G19" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="H19" s="61" t="s">
+        <v>464</v>
+      </c>
+      <c r="I19" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K19" s="62" t="s">
         <v>467</v>
       </c>
-      <c r="G19" s="60" t="s">
+      <c r="L19" s="62" t="s">
         <v>468</v>
-      </c>
-      <c r="H19" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="I19" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K19" s="62" t="s">
-        <v>469</v>
-      </c>
-      <c r="L19" s="62" t="s">
-        <v>470</v>
       </c>
       <c r="M19" s="60"/>
       <c r="N19" s="65"/>
@@ -7332,34 +7321,34 @@
     </row>
     <row r="20" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="66" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B20" s="67" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D20" s="58">
         <v>4</v>
       </c>
       <c r="E20" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G20" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>455</v>
+      </c>
+      <c r="I20" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K20" s="62" t="s">
+        <v>472</v>
+      </c>
+      <c r="L20" s="62" t="s">
         <v>473</v>
-      </c>
-      <c r="H20" s="61" t="s">
-        <v>457</v>
-      </c>
-      <c r="I20" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K20" s="62" t="s">
-        <v>474</v>
-      </c>
-      <c r="L20" s="62" t="s">
-        <v>475</v>
       </c>
       <c r="M20" s="60"/>
       <c r="N20" s="65"/>
@@ -7367,85 +7356,85 @@
     </row>
     <row r="21" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="66" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B21" s="67" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D21" s="58">
         <v>12</v>
       </c>
       <c r="E21" s="59" t="s">
+        <v>476</v>
+      </c>
+      <c r="F21" s="58" t="s">
+        <v>477</v>
+      </c>
+      <c r="G21" s="60" t="s">
         <v>478</v>
       </c>
-      <c r="F21" s="58" t="s">
+      <c r="H21" s="61" t="s">
+        <v>476</v>
+      </c>
+      <c r="I21" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K21" s="62" t="s">
         <v>479</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="L21" s="62" t="s">
         <v>480</v>
-      </c>
-      <c r="H21" s="61" t="s">
-        <v>478</v>
-      </c>
-      <c r="I21" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K21" s="62" t="s">
-        <v>481</v>
-      </c>
-      <c r="L21" s="62" t="s">
-        <v>482</v>
       </c>
       <c r="M21" s="60"/>
       <c r="N21" s="65"/>
       <c r="O21" s="62"/>
       <c r="P21" s="76" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q21" s="43" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="R21" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="66" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D22" s="58">
         <v>1</v>
       </c>
       <c r="E22" s="59" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F22" s="58" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G22" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="H22" s="61" t="s">
+        <v>448</v>
+      </c>
+      <c r="I22" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="K22" s="73" t="s">
+        <v>486</v>
+      </c>
+      <c r="L22" s="73" t="s">
         <v>487</v>
       </c>
-      <c r="H22" s="61" t="s">
-        <v>450</v>
-      </c>
-      <c r="I22" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="K22" s="73" t="s">
+      <c r="M22" s="60" t="s">
         <v>488</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>489</v>
-      </c>
-      <c r="M22" s="60" t="s">
-        <v>490</v>
       </c>
       <c r="N22" s="65"/>
       <c r="P22" s="43" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q22" s="77">
         <v>45122</v>
@@ -7454,573 +7443,573 @@
         <v>45120</v>
       </c>
       <c r="S22" s="43" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="66" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="78" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F23" s="60">
         <v>2</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H23" s="79" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="I23" s="62"/>
       <c r="K23" s="73" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="L23" s="73" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M23" s="60" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="66" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D24" s="62"/>
       <c r="E24" s="78" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F24" s="60">
         <v>3</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H24" s="79" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="I24" s="62"/>
       <c r="K24" s="73" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="L24" s="73" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M24" s="60" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="66" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="78" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F25" s="60">
         <v>4</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H25" s="79" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="I25" s="62"/>
       <c r="K25" s="73" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="L25" s="73" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M25" s="60" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="80" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B26" s="81" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D26" s="82"/>
       <c r="E26" s="83" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F26" s="84">
         <v>5</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H26" s="79" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="I26" s="62"/>
       <c r="K26" s="62" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="L26" s="62" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M26" s="60"/>
     </row>
     <row r="27" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="66" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D27" s="62"/>
       <c r="E27" s="78" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F27" s="60">
         <v>6</v>
       </c>
       <c r="G27" s="60" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H27" s="79" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I27" s="62"/>
       <c r="K27" s="62" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L27" s="62" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M27" s="60"/>
     </row>
     <row r="28" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="80" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B28" s="81" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D28" s="62"/>
       <c r="E28" s="78" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F28" s="60">
         <v>7</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H28" s="79" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="I28" s="62"/>
       <c r="K28" s="62" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="L28" s="62" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M28" s="60"/>
     </row>
     <row r="29" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="80" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B29" s="81" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D29" s="62"/>
       <c r="E29" s="78" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F29" s="60">
         <v>8</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H29" s="79" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="I29" s="62"/>
       <c r="K29" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>520</v>
+      </c>
+      <c r="M29" s="86" t="s">
         <v>521</v>
-      </c>
-      <c r="L29" s="85" t="s">
-        <v>522</v>
-      </c>
-      <c r="M29" s="86" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D30" s="62"/>
       <c r="E30" s="78" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F30" s="60">
         <v>9</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H30" s="79" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I30" s="62"/>
       <c r="K30" s="85" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="L30" s="85" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M30" s="86" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="66" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="78" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="I31" s="62"/>
       <c r="K31" s="85" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="L31" s="85" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="80" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B32" s="81" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="78" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F32" s="60" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H32" s="79" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I32" s="62"/>
       <c r="K32" s="62" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L32" s="62" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M32" s="60"/>
     </row>
     <row r="33" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D33" s="87"/>
       <c r="E33" s="78" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="H33" s="79" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="I33" s="62"/>
       <c r="K33" s="62" t="s">
+        <v>537</v>
+      </c>
+      <c r="L33" s="62" t="s">
+        <v>538</v>
+      </c>
+      <c r="M33" s="60" t="s">
         <v>539</v>
-      </c>
-      <c r="L33" s="62" t="s">
-        <v>540</v>
-      </c>
-      <c r="M33" s="60" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="80" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B34" s="81" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D34" s="87"/>
       <c r="E34" s="78" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="H34" s="79" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="I34" s="62"/>
     </row>
     <row r="35" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="66" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D35" s="87"/>
       <c r="E35" s="78" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H35" s="79" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I35" s="62"/>
     </row>
     <row r="36" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="66" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B36" s="67" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D36" s="87"/>
       <c r="E36" s="78" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H36" s="79" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I36" s="62"/>
     </row>
     <row r="37" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D37" s="87"/>
       <c r="E37" s="78" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H37" s="79" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="I37" s="62"/>
     </row>
     <row r="38" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="56" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="78" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H38" s="79" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="I38" s="62"/>
     </row>
     <row r="39" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="80" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B39" s="81" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D39" s="87"/>
       <c r="E39" s="78" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H39" s="79" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="I39" s="62"/>
     </row>
     <row r="40" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="56" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D40" s="87"/>
       <c r="E40" s="78" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F40" s="87" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H40" s="79" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="I40" s="62"/>
     </row>
     <row r="41" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="80" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B41" s="81" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D41" s="87"/>
       <c r="E41" s="78" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F41" s="87" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G41" s="60" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H41" s="79" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I41" s="62"/>
     </row>
     <row r="42" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="66" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D42" s="87"/>
       <c r="E42" s="78" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F42" s="87" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="H42" s="79" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="80" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B43" s="81" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D43" s="87"/>
       <c r="E43" s="78" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="F43" s="87" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="H43" s="79" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I43" s="62"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D44" s="87"/>
       <c r="E44" s="78" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F44" s="87" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="H44" s="79" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="I44" s="62"/>
     </row>
